--- a/capiq_data/in_process_data/IQ269764.xlsx
+++ b/capiq_data/in_process_data/IQ269764.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{808B528C-DBBC-4B28-AE3B-97FBF121FE6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3029E1C2-16C4-4FDA-BDB7-FC9A23DF6E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e70a6240-2994-459d-83b6-1e12ca7736ea"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"6b80becb-ce66-4b6e-b1d8-5f7b745eb6d7"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>228.291</v>
+        <v>50.042999999999999</v>
       </c>
       <c r="D2">
-        <v>2533.1039999999998</v>
+        <v>2641.2939999999999</v>
       </c>
       <c r="E2">
-        <v>873.92</v>
+        <v>903.28300000000002</v>
       </c>
       <c r="F2">
-        <v>935.59</v>
+        <v>515.06700000000001</v>
       </c>
       <c r="G2">
-        <v>4339.0829999999996</v>
+        <v>3958.0149999999999</v>
       </c>
       <c r="H2">
-        <v>38685.275999999998</v>
+        <v>25451.896000000001</v>
       </c>
       <c r="I2">
-        <v>1181.0989999999999</v>
+        <v>1204.2270000000001</v>
       </c>
       <c r="J2">
-        <v>11317.156999999999</v>
+        <v>7947.0929999999998</v>
       </c>
       <c r="K2">
-        <v>154.13499999999999</v>
+        <v>388.02300000000002</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2776.2489999999998</v>
+        <v>3438.1509999999998</v>
       </c>
       <c r="O2">
-        <v>29878.137999999999</v>
+        <v>18047.785</v>
       </c>
       <c r="P2">
-        <v>11816.306</v>
+        <v>9158.1110000000008</v>
       </c>
       <c r="Q2">
-        <v>-636.447</v>
+        <v>149.33500000000001</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>14958</v>
+        <v>13884</v>
       </c>
       <c r="T2">
-        <v>8807.1380000000008</v>
+        <v>7404.1109999999999</v>
       </c>
       <c r="U2">
-        <v>1294.472</v>
+        <v>1382.424</v>
       </c>
       <c r="V2">
-        <v>760.99199999999996</v>
+        <v>528.69399999999996</v>
       </c>
       <c r="W2">
-        <v>-150.17099999999999</v>
+        <v>-66.358999999999995</v>
       </c>
       <c r="X2">
-        <v>-818.048</v>
+        <v>221.59100000000001</v>
       </c>
       <c r="Y2">
-        <v>42.078000000000003</v>
+        <v>201.87299999999999</v>
       </c>
       <c r="Z2">
-        <v>-92.74</v>
+        <v>21.896000000000001</v>
       </c>
       <c r="AA2">
-        <v>228.291</v>
+        <v>50.042999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>248.66300000000001</v>
+        <v>160.87100000000001</v>
       </c>
       <c r="D3">
-        <v>2541.2080000000001</v>
+        <v>2652.4270000000001</v>
       </c>
       <c r="E3">
-        <v>790.84299999999996</v>
+        <v>883.31100000000004</v>
       </c>
       <c r="F3">
-        <v>951.16399999999999</v>
+        <v>675.01900000000001</v>
       </c>
       <c r="G3">
-        <v>3777.5859999999998</v>
+        <v>3368.0720000000001</v>
       </c>
       <c r="H3">
-        <v>38598.565999999999</v>
+        <v>25191.758999999998</v>
       </c>
       <c r="I3">
-        <v>986.30700000000002</v>
+        <v>712.96500000000003</v>
       </c>
       <c r="J3">
-        <v>11581.317999999999</v>
+        <v>7566.7579999999998</v>
       </c>
       <c r="K3">
-        <v>183.07900000000001</v>
+        <v>623.01900000000001</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-278.084</v>
+        <v>-77.363</v>
       </c>
       <c r="N3">
-        <v>2310.7440000000001</v>
+        <v>3587.79</v>
       </c>
       <c r="O3">
-        <v>29752.686000000002</v>
+        <v>17728.710999999999</v>
       </c>
       <c r="P3">
-        <v>12017.7</v>
+        <v>9380.4310000000005</v>
       </c>
       <c r="Q3">
-        <v>-568.23500000000001</v>
+        <v>-352.59300000000002</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>8845.8799999999992</v>
+        <v>7463.0479999999998</v>
       </c>
       <c r="U3">
-        <v>726.23699999999997</v>
+        <v>1029.8309999999999</v>
       </c>
       <c r="V3">
-        <v>323.101</v>
+        <v>184.554</v>
       </c>
       <c r="W3">
-        <v>-148.678</v>
+        <v>-66.655000000000001</v>
       </c>
       <c r="X3">
-        <v>5.7869999999999999</v>
+        <v>212.101</v>
       </c>
       <c r="Y3">
-        <v>41.186999999999998</v>
+        <v>205.83</v>
       </c>
       <c r="Z3">
-        <v>-21.212</v>
+        <v>-365.06700000000001</v>
       </c>
       <c r="AA3">
-        <v>248.66300000000001</v>
+        <v>160.87100000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>315.58300000000003</v>
+        <v>245.583</v>
       </c>
       <c r="D4">
-        <v>2803.279</v>
+        <v>2506.2750000000001</v>
       </c>
       <c r="E4">
-        <v>1040.912</v>
+        <v>932.07299999999998</v>
       </c>
       <c r="F4">
-        <v>1013.2569999999999</v>
+        <v>775.57399999999996</v>
       </c>
       <c r="G4">
-        <v>3863.1419999999998</v>
+        <v>3066.6959999999999</v>
       </c>
       <c r="H4">
-        <v>39129.760999999999</v>
+        <v>25366.842000000001</v>
       </c>
       <c r="I4">
-        <v>1044.2170000000001</v>
+        <v>641.37099999999998</v>
       </c>
       <c r="J4">
-        <v>12057.368</v>
+        <v>7520.5129999999999</v>
       </c>
       <c r="K4">
-        <v>130.79499999999999</v>
+        <v>485.51900000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2242.404</v>
+        <v>3554.549</v>
       </c>
       <c r="O4">
-        <v>30221.45</v>
+        <v>17686.600999999999</v>
       </c>
       <c r="P4">
-        <v>12360.001</v>
+        <v>9167.8940000000002</v>
       </c>
       <c r="Q4">
-        <v>-196.37899999999999</v>
+        <v>-331.13600000000002</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>8908.3109999999997</v>
+        <v>7680.241</v>
       </c>
       <c r="U4">
-        <v>529.85799999999995</v>
+        <v>698.69500000000005</v>
       </c>
       <c r="V4">
-        <v>654.14800000000002</v>
+        <v>416.14499999999998</v>
       </c>
       <c r="W4">
-        <v>-147.67699999999999</v>
+        <v>-68.105000000000004</v>
       </c>
       <c r="X4">
-        <v>80.382999999999996</v>
+        <v>-251.93199999999999</v>
       </c>
       <c r="Y4">
-        <v>40.177</v>
+        <v>177.73699999999999</v>
       </c>
       <c r="Z4">
-        <v>-21.782</v>
+        <v>-256.73399999999998</v>
       </c>
       <c r="AA4">
-        <v>315.58300000000003</v>
+        <v>245.583</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>628.05399999999997</v>
+        <v>317.45299999999997</v>
       </c>
       <c r="D5">
-        <v>3395.5529999999999</v>
+        <v>2576.8890000000001</v>
       </c>
       <c r="E5">
-        <v>1087.3109999999999</v>
+        <v>931.76300000000003</v>
       </c>
       <c r="F5">
-        <v>1296.8489999999999</v>
+        <v>820.30700000000002</v>
       </c>
       <c r="G5">
-        <v>4154.4979999999996</v>
+        <v>3356.7109999999998</v>
       </c>
       <c r="H5">
-        <v>39161.498</v>
+        <v>26181.633999999998</v>
       </c>
       <c r="I5">
-        <v>882.65099999999995</v>
+        <v>594.32000000000005</v>
       </c>
       <c r="J5">
-        <v>10241.993</v>
+        <v>7452.6130000000003</v>
       </c>
       <c r="K5">
-        <v>144.87100000000001</v>
+        <v>1051.018</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>4161.3429999999998</v>
+        <v>4105.3599999999997</v>
       </c>
       <c r="O5">
-        <v>29885.387999999999</v>
+        <v>18313.876</v>
       </c>
       <c r="P5">
-        <v>12452.192999999999</v>
+        <v>9410.9619999999995</v>
       </c>
       <c r="Q5">
-        <v>457.28199999999998</v>
+        <v>202.58099999999999</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>9276.11</v>
+        <v>7867.7579999999998</v>
       </c>
       <c r="U5">
-        <v>987.14</v>
+        <v>901.27599999999995</v>
       </c>
       <c r="V5">
-        <v>1152.5070000000001</v>
+        <v>628.05700000000002</v>
       </c>
       <c r="W5">
-        <v>-146.935</v>
+        <v>-67.352000000000004</v>
       </c>
       <c r="X5">
-        <v>-127.98</v>
+        <v>78.507999999999996</v>
       </c>
       <c r="Y5">
-        <v>39.341000000000001</v>
+        <v>150.68100000000001</v>
       </c>
       <c r="Z5">
-        <v>-17.699000000000002</v>
+        <v>-261.34699999999998</v>
       </c>
       <c r="AA5">
-        <v>628.05399999999997</v>
+        <v>317.45400000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>154.13900000000001</v>
+        <v>26.6</v>
       </c>
       <c r="D6">
-        <v>2489.0320000000002</v>
+        <v>1885.308</v>
       </c>
       <c r="E6">
-        <v>835.68200000000002</v>
+        <v>535.12400000000002</v>
       </c>
       <c r="F6">
-        <v>800.44500000000005</v>
+        <v>423.80500000000001</v>
       </c>
       <c r="G6">
-        <v>3622.703</v>
+        <v>2756.53</v>
       </c>
       <c r="H6">
-        <v>40701.699000000001</v>
+        <v>25910.311000000002</v>
       </c>
       <c r="I6">
-        <v>1069.096</v>
+        <v>592.529</v>
       </c>
       <c r="J6">
-        <v>10043.713</v>
+        <v>7536.0280000000002</v>
       </c>
       <c r="K6">
-        <v>108.331</v>
+        <v>351.01799999999997</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>4950.6989999999996</v>
+        <v>3105.1489999999999</v>
       </c>
       <c r="O6">
-        <v>31459.918000000001</v>
+        <v>18093.769</v>
       </c>
       <c r="P6">
-        <v>12386.829</v>
+        <v>8900.2540000000008</v>
       </c>
       <c r="Q6">
-        <v>-292.702</v>
+        <v>-149.703</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>14682</v>
+        <v>14871</v>
       </c>
       <c r="T6">
-        <v>9241.7810000000009</v>
+        <v>7816.5420000000004</v>
       </c>
       <c r="U6">
-        <v>694.43799999999999</v>
+        <v>751.57299999999998</v>
       </c>
       <c r="V6">
-        <v>999.06100000000004</v>
+        <v>986.79200000000003</v>
       </c>
       <c r="W6">
-        <v>-146.315</v>
+        <v>-67.010000000000005</v>
       </c>
       <c r="X6">
-        <v>-240.47499999999999</v>
+        <v>-660.68100000000004</v>
       </c>
       <c r="Y6">
-        <v>38.420999999999999</v>
+        <v>181.08500000000001</v>
       </c>
       <c r="Z6">
-        <v>49.07</v>
+        <v>101.173</v>
       </c>
       <c r="AA6">
-        <v>154.13900000000001</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-151.68299999999999</v>
+        <v>-72.983000000000004</v>
       </c>
       <c r="D7">
-        <v>2383.6590000000001</v>
+        <v>1860.8340000000001</v>
       </c>
       <c r="E7">
-        <v>683.38599999999997</v>
+        <v>530.77099999999996</v>
       </c>
       <c r="F7">
-        <v>774.33699999999999</v>
+        <v>672.94799999999998</v>
       </c>
       <c r="G7">
-        <v>3476.337</v>
+        <v>2458.8000000000002</v>
       </c>
       <c r="H7">
-        <v>40930.224000000002</v>
+        <v>25509.856</v>
       </c>
       <c r="I7">
-        <v>916.24800000000005</v>
+        <v>523.01599999999996</v>
       </c>
       <c r="J7">
-        <v>12121.105</v>
+        <v>7273.9040000000005</v>
       </c>
       <c r="K7">
-        <v>141.113</v>
+        <v>407.351</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-859.64800000000002</v>
+        <v>-577.93399999999997</v>
       </c>
       <c r="N7">
-        <v>2910.654</v>
+        <v>3034.8339999999998</v>
       </c>
       <c r="O7">
-        <v>31735.454000000002</v>
+        <v>17717.421999999999</v>
       </c>
       <c r="P7">
-        <v>12618.656000000001</v>
+        <v>8592.61</v>
       </c>
       <c r="Q7">
-        <v>-9.4359999999999999</v>
+        <v>11.722</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>9194.77</v>
+        <v>7792.4340000000002</v>
       </c>
       <c r="U7">
-        <v>685.00199999999995</v>
+        <v>763.29499999999996</v>
       </c>
       <c r="V7">
-        <v>600.5</v>
+        <v>353.90300000000002</v>
       </c>
       <c r="W7">
-        <v>-146.67400000000001</v>
+        <v>-73.224999999999994</v>
       </c>
       <c r="X7">
-        <v>139.649</v>
+        <v>-295.791</v>
       </c>
       <c r="Y7">
-        <v>37.470999999999997</v>
+        <v>191.87899999999999</v>
       </c>
       <c r="Z7">
-        <v>93.786000000000001</v>
+        <v>189.75399999999999</v>
       </c>
       <c r="AA7">
-        <v>-151.68299999999999</v>
+        <v>-72.983000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>365.00099999999998</v>
+        <v>247.584</v>
       </c>
       <c r="D8">
-        <v>2518.6</v>
+        <v>2096.5810000000001</v>
       </c>
       <c r="E8">
-        <v>889.81899999999996</v>
+        <v>727.61199999999997</v>
       </c>
       <c r="F8">
-        <v>905.44200000000001</v>
+        <v>639.94600000000003</v>
       </c>
       <c r="G8">
-        <v>3203.5</v>
+        <v>2698.777</v>
       </c>
       <c r="H8">
-        <v>40917.605000000003</v>
+        <v>26001.333999999999</v>
       </c>
       <c r="I8">
-        <v>1035.8340000000001</v>
+        <v>584.76199999999994</v>
       </c>
       <c r="J8">
-        <v>11968.934999999999</v>
+        <v>6773.5379999999996</v>
       </c>
       <c r="K8">
-        <v>103.71599999999999</v>
+        <v>685.351</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3041.9430000000002</v>
+        <v>3897.627</v>
       </c>
       <c r="O8">
-        <v>31607.098999999998</v>
+        <v>17986.174999999999</v>
       </c>
       <c r="P8">
-        <v>12533.306</v>
+        <v>8884.9189999999999</v>
       </c>
       <c r="Q8">
-        <v>-401.60899999999998</v>
+        <v>-32.634999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>9310.5059999999994</v>
+        <v>8015.1589999999997</v>
       </c>
       <c r="U8">
-        <v>283.39299999999997</v>
+        <v>730.66</v>
       </c>
       <c r="V8">
-        <v>587.41899999999998</v>
+        <v>449.08</v>
       </c>
       <c r="W8">
-        <v>-147.06700000000001</v>
+        <v>-74.103999999999999</v>
       </c>
       <c r="X8">
-        <v>-238.30600000000001</v>
+        <v>-29.251999999999999</v>
       </c>
       <c r="Y8">
-        <v>36.512999999999998</v>
+        <v>183.452</v>
       </c>
       <c r="Z8">
-        <v>-56.71</v>
+        <v>-0.29399999999999998</v>
       </c>
       <c r="AA8">
-        <v>365.00099999999998</v>
+        <v>247.58500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>337.08699999999999</v>
+        <v>366.8</v>
       </c>
       <c r="D9">
-        <v>2963.56</v>
+        <v>2468.875</v>
       </c>
       <c r="E9">
-        <v>992.24099999999999</v>
+        <v>782.97699999999998</v>
       </c>
       <c r="F9">
-        <v>1202.914</v>
+        <v>1009.424</v>
       </c>
       <c r="G9">
-        <v>3807.75</v>
+        <v>2950.43</v>
       </c>
       <c r="H9">
-        <v>42023.68</v>
+        <v>26776.992999999999</v>
       </c>
       <c r="I9">
-        <v>1362.702</v>
+        <v>662.26099999999997</v>
       </c>
       <c r="J9">
-        <v>11748.153</v>
+        <v>7454.1390000000001</v>
       </c>
       <c r="K9">
-        <v>356.17200000000003</v>
+        <v>15.351000000000001</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3924.268</v>
+        <v>3181.8539999999998</v>
       </c>
       <c r="O9">
-        <v>32552.648000000001</v>
+        <v>18598.330000000002</v>
       </c>
       <c r="P9">
-        <v>12931.383</v>
+        <v>8783.5370000000003</v>
       </c>
       <c r="Q9">
-        <v>466.32600000000002</v>
+        <v>218.18600000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>9471.0319999999992</v>
+        <v>8178.6629999999996</v>
       </c>
       <c r="U9">
-        <v>749.71900000000005</v>
+        <v>948.846</v>
       </c>
       <c r="V9">
-        <v>1031.8689999999999</v>
+        <v>867.29399999999998</v>
       </c>
       <c r="W9">
-        <v>-147.55099999999999</v>
+        <v>-73.885999999999996</v>
       </c>
       <c r="X9">
-        <v>257.79300000000001</v>
+        <v>-322.32600000000002</v>
       </c>
       <c r="Y9">
-        <v>35.530999999999999</v>
+        <v>196.572</v>
       </c>
       <c r="Z9">
-        <v>-107.071</v>
+        <v>-0.496</v>
       </c>
       <c r="AA9">
-        <v>337.08800000000002</v>
+        <v>366.8</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>296.26799999999997</v>
+        <v>81.671000000000006</v>
       </c>
       <c r="D10">
-        <v>2436.259</v>
+        <v>1878.7460000000001</v>
       </c>
       <c r="E10">
-        <v>840.30700000000002</v>
+        <v>615.06299999999999</v>
       </c>
       <c r="F10">
-        <v>849.35900000000004</v>
+        <v>352.209</v>
       </c>
       <c r="G10">
-        <v>3683.1260000000002</v>
+        <v>3205.5830000000001</v>
       </c>
       <c r="H10">
-        <v>43202.502</v>
+        <v>27504.366000000002</v>
       </c>
       <c r="I10">
-        <v>1217.18</v>
+        <v>855.44600000000003</v>
       </c>
       <c r="J10">
-        <v>11920.317999999999</v>
+        <v>7308.6490000000003</v>
       </c>
       <c r="K10">
-        <v>796.00199999999995</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4106.3209999999999</v>
+        <v>3172.1889999999999</v>
       </c>
       <c r="O10">
-        <v>33724.902000000002</v>
+        <v>19307.465</v>
       </c>
       <c r="P10">
-        <v>13473.257</v>
+        <v>8810.0849999999991</v>
       </c>
       <c r="Q10">
-        <v>-217.15</v>
+        <v>386.48200000000003</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>14625</v>
+        <v>15352</v>
       </c>
       <c r="T10">
-        <v>9477.6</v>
+        <v>8196.9009999999998</v>
       </c>
       <c r="U10">
-        <v>532.56899999999996</v>
+        <v>1335.328</v>
       </c>
       <c r="V10">
-        <v>720.49699999999996</v>
+        <v>511.42599999999999</v>
       </c>
       <c r="W10">
-        <v>-147.917</v>
+        <v>-77.775999999999996</v>
       </c>
       <c r="X10">
-        <v>379.01499999999999</v>
+        <v>434.75900000000001</v>
       </c>
       <c r="Y10">
-        <v>34.540999999999997</v>
+        <v>155.94300000000001</v>
       </c>
       <c r="Z10">
-        <v>85.17</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>296.26799999999997</v>
+        <v>81.671000000000006</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>161.4</v>
+        <v>400.923</v>
       </c>
       <c r="D11">
-        <v>2608.8739999999998</v>
+        <v>2037.723</v>
       </c>
       <c r="E11">
-        <v>873.58199999999999</v>
+        <v>630.54</v>
       </c>
       <c r="F11">
-        <v>910.43499999999995</v>
+        <v>717.19399999999996</v>
       </c>
       <c r="G11">
-        <v>3322.873</v>
+        <v>2501.3119999999999</v>
       </c>
       <c r="H11">
-        <v>42792.972999999998</v>
+        <v>27400.789000000001</v>
       </c>
       <c r="I11">
-        <v>1036.1220000000001</v>
+        <v>608.53700000000003</v>
       </c>
       <c r="J11">
-        <v>11729.134</v>
+        <v>7470.1819999999998</v>
       </c>
       <c r="K11">
-        <v>1073.8879999999999</v>
+        <v>60.350999999999999</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-849.86</v>
+        <v>-796.68600000000004</v>
       </c>
       <c r="N11">
-        <v>3896.42</v>
+        <v>2363.4079999999999</v>
       </c>
       <c r="O11">
-        <v>33299.385999999999</v>
+        <v>18802.277999999998</v>
       </c>
       <c r="P11">
-        <v>13471.115</v>
+        <v>8403.5509999999995</v>
       </c>
       <c r="Q11">
-        <v>-269.63799999999998</v>
+        <v>-957.87</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>9493.5869999999995</v>
+        <v>8598.5110000000004</v>
       </c>
       <c r="U11">
-        <v>262.93099999999998</v>
+        <v>377.45499999999998</v>
       </c>
       <c r="V11">
-        <v>543.98900000000003</v>
+        <v>50.712000000000003</v>
       </c>
       <c r="W11">
-        <v>-147.90199999999999</v>
+        <v>-78.141999999999996</v>
       </c>
       <c r="X11">
-        <v>-152.63900000000001</v>
+        <v>-397.99599999999998</v>
       </c>
       <c r="Y11">
-        <v>33.975999999999999</v>
+        <v>159.06800000000001</v>
       </c>
       <c r="Z11">
-        <v>-44.298000000000002</v>
+        <v>-166.43899999999999</v>
       </c>
       <c r="AA11">
-        <v>161.4</v>
+        <v>400.923</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>163.72300000000001</v>
+        <v>211.517</v>
       </c>
       <c r="D12">
-        <v>2738.2080000000001</v>
+        <v>2353.9090000000001</v>
       </c>
       <c r="E12">
-        <v>998.37599999999998</v>
+        <v>847.25199999999995</v>
       </c>
       <c r="F12">
-        <v>852.197</v>
+        <v>806.16099999999994</v>
       </c>
       <c r="G12">
-        <v>3591.7220000000002</v>
+        <v>3546.4009999999998</v>
       </c>
       <c r="H12">
-        <v>43262.285000000003</v>
+        <v>28832.460999999999</v>
       </c>
       <c r="I12">
-        <v>1170.405</v>
+        <v>701.68899999999996</v>
       </c>
       <c r="J12">
-        <v>12094.752</v>
+        <v>8078.6130000000003</v>
       </c>
       <c r="K12">
-        <v>1090.124</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3983.9540000000002</v>
+        <v>2517.576</v>
       </c>
       <c r="O12">
-        <v>33707.256999999998</v>
+        <v>19981.554</v>
       </c>
       <c r="P12">
-        <v>13747.011</v>
+        <v>9165.9259999999995</v>
       </c>
       <c r="Q12">
-        <v>48.441000000000003</v>
+        <v>700.32299999999998</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>9555.0280000000002</v>
+        <v>8850.9069999999992</v>
       </c>
       <c r="U12">
-        <v>311.37200000000001</v>
+        <v>1077.7809999999999</v>
       </c>
       <c r="V12">
-        <v>571.91600000000005</v>
+        <v>474.55099999999999</v>
       </c>
       <c r="W12">
-        <v>-149.15199999999999</v>
+        <v>-79.212999999999994</v>
       </c>
       <c r="X12">
-        <v>119.96</v>
+        <v>749.09799999999996</v>
       </c>
       <c r="Y12">
-        <v>33.402000000000001</v>
+        <v>156.96</v>
       </c>
       <c r="Z12">
-        <v>15.403</v>
+        <v>-0.61499999999999999</v>
       </c>
       <c r="AA12">
-        <v>163.72300000000001</v>
+        <v>211.517</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>239.85</v>
+        <v>371.65199999999999</v>
       </c>
       <c r="D13">
-        <v>3351.9589999999998</v>
+        <v>2700.125</v>
       </c>
       <c r="E13">
-        <v>1097.1389999999999</v>
+        <v>937.44299999999998</v>
       </c>
       <c r="F13">
-        <v>1237.0540000000001</v>
+        <v>980.01599999999996</v>
       </c>
       <c r="G13">
-        <v>3489.59</v>
+        <v>3041.3989999999999</v>
       </c>
       <c r="H13">
-        <v>43324.125999999997</v>
+        <v>28567.83</v>
       </c>
       <c r="I13">
-        <v>900.13099999999997</v>
+        <v>573.25900000000001</v>
       </c>
       <c r="J13">
-        <v>12275.492</v>
+        <v>7655.8159999999998</v>
       </c>
       <c r="K13">
-        <v>1106.039</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3439.0279999999998</v>
+        <v>2353.018</v>
       </c>
       <c r="O13">
-        <v>33635.163999999997</v>
+        <v>19441.617999999999</v>
       </c>
       <c r="P13">
-        <v>13623.322</v>
+        <v>8546.9709999999995</v>
       </c>
       <c r="Q13">
-        <v>53.96</v>
+        <v>-500.23700000000002</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>9688.9619999999995</v>
+        <v>9126.2119999999995</v>
       </c>
       <c r="U13">
-        <v>365.33199999999999</v>
+        <v>577.54399999999998</v>
       </c>
       <c r="V13">
-        <v>1083.5540000000001</v>
+        <v>650.81700000000001</v>
       </c>
       <c r="W13">
-        <v>-147.977</v>
+        <v>-120.16800000000001</v>
       </c>
       <c r="X13">
-        <v>-276.28800000000001</v>
+        <v>-734.64599999999996</v>
       </c>
       <c r="Y13">
-        <v>32.814</v>
+        <v>165.512</v>
       </c>
       <c r="Z13">
-        <v>-14.760999999999999</v>
+        <v>-19.593</v>
       </c>
       <c r="AA13">
-        <v>239.85</v>
+        <v>371.65</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>146.929</v>
+        <v>-33.625</v>
       </c>
       <c r="D14">
-        <v>2691.9059999999999</v>
+        <v>2103.16</v>
       </c>
       <c r="E14">
-        <v>977.15800000000002</v>
+        <v>756.97500000000002</v>
       </c>
       <c r="F14">
-        <v>906.57399999999996</v>
+        <v>361.94099999999997</v>
       </c>
       <c r="G14">
-        <v>3929.6909999999998</v>
+        <v>2919.2440000000001</v>
       </c>
       <c r="H14">
-        <v>43406.446000000004</v>
+        <v>28527.387999999999</v>
       </c>
       <c r="I14">
-        <v>1173.3130000000001</v>
+        <v>796.572</v>
       </c>
       <c r="J14">
-        <v>12139.148999999999</v>
+        <v>7322.94</v>
       </c>
       <c r="K14">
-        <v>1046.8869999999999</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4060.5720000000001</v>
+        <v>2222.076</v>
       </c>
       <c r="O14">
-        <v>33469.22</v>
+        <v>19468.541000000001</v>
       </c>
       <c r="P14">
-        <v>13677.672</v>
+        <v>8161.5389999999998</v>
       </c>
       <c r="Q14">
-        <v>373.79399999999998</v>
+        <v>114.68899999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>13808</v>
+        <v>14564</v>
       </c>
       <c r="T14">
-        <v>9937.2260000000006</v>
+        <v>9058.8469999999998</v>
       </c>
       <c r="U14">
-        <v>739.12599999999998</v>
+        <v>692.23299999999995</v>
       </c>
       <c r="V14">
-        <v>989.76</v>
+        <v>829.74</v>
       </c>
       <c r="W14">
-        <v>-148.006</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-71.856999999999999</v>
+        <v>-485.58600000000001</v>
       </c>
       <c r="Y14">
-        <v>32.218000000000004</v>
+        <v>153.898</v>
       </c>
       <c r="Z14">
-        <v>-39.298999999999999</v>
+        <v>308.834</v>
       </c>
       <c r="AA14">
-        <v>146.929</v>
+        <v>-33.625</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>401.17399999999998</v>
+        <v>213.01599999999999</v>
       </c>
       <c r="D15">
-        <v>3208.8429999999998</v>
+        <v>2251.549</v>
       </c>
       <c r="E15">
-        <v>943.56899999999996</v>
+        <v>730.88400000000001</v>
       </c>
       <c r="F15">
-        <v>1295.133</v>
+        <v>709.04300000000001</v>
       </c>
       <c r="G15">
-        <v>4193.3159999999998</v>
+        <v>3035.319</v>
       </c>
       <c r="H15">
-        <v>43876.769</v>
+        <v>28762.306</v>
       </c>
       <c r="I15">
-        <v>1145.5909999999999</v>
+        <v>626.56299999999999</v>
       </c>
       <c r="J15">
-        <v>12198.641</v>
+        <v>7399.1360000000004</v>
       </c>
       <c r="K15">
-        <v>1204.846</v>
+        <v>4.45</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-735.79399999999998</v>
+        <v>-21.231999999999999</v>
       </c>
       <c r="N15">
-        <v>3917.4609999999998</v>
+        <v>2096.5590000000002</v>
       </c>
       <c r="O15">
-        <v>33623.580999999998</v>
+        <v>19520.687999999998</v>
       </c>
       <c r="P15">
-        <v>13860.129000000001</v>
+        <v>8263.5049999999992</v>
       </c>
       <c r="Q15">
-        <v>169.357</v>
+        <v>300.73</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>10253.188</v>
+        <v>9241.6180000000004</v>
       </c>
       <c r="U15">
-        <v>908.48299999999995</v>
+        <v>874.96299999999997</v>
       </c>
       <c r="V15">
-        <v>767.15700000000004</v>
+        <v>398.77300000000002</v>
       </c>
       <c r="W15">
-        <v>-148.27500000000001</v>
+        <v>-100.229</v>
       </c>
       <c r="X15">
-        <v>57.798999999999999</v>
+        <v>40.899000000000001</v>
       </c>
       <c r="Y15">
-        <v>31.608000000000001</v>
+        <v>170.53800000000001</v>
       </c>
       <c r="Z15">
-        <v>18.093</v>
+        <v>152.68799999999999</v>
       </c>
       <c r="AA15">
-        <v>401.17399999999998</v>
+        <v>213.01599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>189.38300000000001</v>
+        <v>271.012</v>
       </c>
       <c r="D16">
-        <v>2996.65</v>
+        <v>2485.0970000000002</v>
       </c>
       <c r="E16">
-        <v>1041.8019999999999</v>
+        <v>908.20299999999997</v>
       </c>
       <c r="F16">
-        <v>993.23199999999997</v>
+        <v>834.44500000000005</v>
       </c>
       <c r="G16">
-        <v>4245.1329999999998</v>
+        <v>3015.5810000000001</v>
       </c>
       <c r="H16">
-        <v>44150.747000000003</v>
+        <v>28869.567999999999</v>
       </c>
       <c r="I16">
-        <v>1159.7260000000001</v>
+        <v>834.34199999999998</v>
       </c>
       <c r="J16">
-        <v>11936.105</v>
+        <v>7586.0389999999998</v>
       </c>
       <c r="K16">
-        <v>1039.3489999999999</v>
+        <v>110.348</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4128.0690000000004</v>
+        <v>2164.15</v>
       </c>
       <c r="O16">
-        <v>33783.519</v>
+        <v>19772.55</v>
       </c>
       <c r="P16">
-        <v>13691.521000000001</v>
+        <v>8154.7340000000004</v>
       </c>
       <c r="Q16">
-        <v>-258.41500000000002</v>
+        <v>-249.76499999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>10367.227999999999</v>
+        <v>9097.018</v>
       </c>
       <c r="U16">
-        <v>650.06799999999998</v>
+        <v>585.69799999999998</v>
       </c>
       <c r="V16">
-        <v>761.40599999999995</v>
+        <v>530.29700000000003</v>
       </c>
       <c r="W16">
-        <v>-148.953</v>
+        <v>-102.12</v>
       </c>
       <c r="X16">
-        <v>-284.76</v>
+        <v>-432.61</v>
       </c>
       <c r="Y16">
-        <v>30.988</v>
+        <v>137.935</v>
       </c>
       <c r="Z16">
-        <v>-158.86500000000001</v>
+        <v>43.741</v>
       </c>
       <c r="AA16">
-        <v>189.38300000000001</v>
+        <v>271.01100000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>230.03700000000001</v>
+        <v>288.04700000000003</v>
       </c>
       <c r="D17">
-        <v>3458.11</v>
+        <v>2963.5810000000001</v>
       </c>
       <c r="E17">
-        <v>1094.0830000000001</v>
+        <v>1061.519</v>
       </c>
       <c r="F17">
-        <v>1220.5129999999999</v>
+        <v>933.08</v>
       </c>
       <c r="G17">
-        <v>4264.5389999999998</v>
+        <v>3089.26</v>
       </c>
       <c r="H17">
-        <v>44541.648999999998</v>
+        <v>28937.929</v>
       </c>
       <c r="I17">
-        <v>1104.105</v>
+        <v>786.43700000000001</v>
       </c>
       <c r="J17">
-        <v>11634.662</v>
+        <v>7219.6109999999999</v>
       </c>
       <c r="K17">
-        <v>891.44500000000005</v>
+        <v>110.273</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>4453.567</v>
+        <v>2398.4609999999998</v>
       </c>
       <c r="O17">
-        <v>34087.853999999999</v>
+        <v>19745.600999999999</v>
       </c>
       <c r="P17">
-        <v>13672.967000000001</v>
+        <v>8052.2809999999999</v>
       </c>
       <c r="Q17">
-        <v>418.44099999999997</v>
+        <v>-17.056999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>10453.795</v>
+        <v>9192.3279999999995</v>
       </c>
       <c r="U17">
-        <v>1068.509</v>
+        <v>587.84100000000001</v>
       </c>
       <c r="V17">
-        <v>1362.9259999999999</v>
+        <v>784.59500000000003</v>
       </c>
       <c r="W17">
-        <v>-149.08000000000001</v>
+        <v>-102.16</v>
       </c>
       <c r="X17">
-        <v>-166.70400000000001</v>
+        <v>-343.64499999999998</v>
       </c>
       <c r="Y17">
-        <v>30.353999999999999</v>
+        <v>138.29599999999999</v>
       </c>
       <c r="Z17">
-        <v>177.86199999999999</v>
+        <v>-19.469000000000001</v>
       </c>
       <c r="AA17">
-        <v>230.03700000000001</v>
+        <v>288.04700000000003</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>120.127</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>2831.3180000000002</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>882.91300000000001</v>
+        <v>871.47199999999998</v>
       </c>
       <c r="F18">
-        <v>887.95500000000004</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>4389.6329999999998</v>
+        <v>3077.2759999999998</v>
       </c>
       <c r="H18">
-        <v>46414.455000000002</v>
+        <v>28310.776999999998</v>
       </c>
       <c r="I18">
-        <v>1166.431</v>
+        <v>896.52800000000002</v>
       </c>
       <c r="J18">
-        <v>12386.71</v>
+        <v>7016.8310000000001</v>
       </c>
       <c r="K18">
-        <v>598.40700000000004</v>
+        <v>0.193</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3848.8910000000001</v>
+        <v>2332.3829999999998</v>
       </c>
       <c r="O18">
-        <v>36101.97</v>
+        <v>19631.333999999999</v>
       </c>
       <c r="P18">
-        <v>13916.71</v>
+        <v>7789.4949999999999</v>
       </c>
       <c r="Q18">
-        <v>353.517</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>13393</v>
+        <v>14235</v>
       </c>
       <c r="T18">
-        <v>10312.485000000001</v>
+        <v>8679.4429999999993</v>
       </c>
       <c r="U18">
-        <v>1422.0260000000001</v>
+        <v>619.78599999999994</v>
       </c>
       <c r="V18">
-        <v>998.072</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>-149.809</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>141.49199999999999</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>29.71</v>
+        <v>146.06</v>
       </c>
       <c r="Z18">
-        <v>9.8930000000000007</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>120.127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>298.05</v>
+        <v>178.37899999999999</v>
       </c>
       <c r="D19">
-        <v>2920.09</v>
+        <v>2110.1819999999998</v>
       </c>
       <c r="E19">
-        <v>893.87699999999995</v>
+        <v>721.495</v>
       </c>
       <c r="F19">
-        <v>1112.634</v>
+        <v>636.12300000000005</v>
       </c>
       <c r="G19">
-        <v>4139.9849999999997</v>
+        <v>3157.2660000000001</v>
       </c>
       <c r="H19">
-        <v>46377.533000000003</v>
+        <v>28426.901000000002</v>
       </c>
       <c r="I19">
-        <v>941.596</v>
+        <v>718.11800000000005</v>
       </c>
       <c r="J19">
-        <v>12307.54</v>
+        <v>7444.9009999999998</v>
       </c>
       <c r="K19">
-        <v>808.41899999999998</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-7.4999999999999997E-2</v>
       </c>
       <c r="M19">
-        <v>-685.25800000000004</v>
+        <v>-336.31400000000002</v>
       </c>
       <c r="N19">
-        <v>3765.4250000000002</v>
+        <v>2269.4989999999998</v>
       </c>
       <c r="O19">
-        <v>35938.794000000002</v>
+        <v>20031.726999999999</v>
       </c>
       <c r="P19">
-        <v>14044.444</v>
+        <v>8244.3780000000006</v>
       </c>
       <c r="Q19">
-        <v>-241.48</v>
+        <v>-142.911</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>10438.739</v>
+        <v>8395.1740000000009</v>
       </c>
       <c r="U19">
-        <v>1180.546</v>
+        <v>479.40199999999999</v>
       </c>
       <c r="V19">
-        <v>610.95799999999997</v>
+        <v>496.76499999999999</v>
       </c>
       <c r="W19">
-        <v>-149.25700000000001</v>
+        <v>-115.504</v>
       </c>
       <c r="X19">
-        <v>-152.559</v>
+        <v>-73.313999999999993</v>
       </c>
       <c r="Y19">
-        <v>29.050999999999998</v>
+        <v>175.17400000000001</v>
       </c>
       <c r="Z19">
-        <v>0.27800000000000002</v>
+        <v>-251.72</v>
       </c>
       <c r="AA19">
-        <v>298.05</v>
+        <v>178.37899999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>148.84200000000001</v>
+        <v>292.548</v>
       </c>
       <c r="D20">
-        <v>2713.2310000000002</v>
+        <v>2445.3910000000001</v>
       </c>
       <c r="E20">
-        <v>998.43100000000004</v>
+        <v>990.76400000000001</v>
       </c>
       <c r="F20">
-        <v>945.59900000000005</v>
+        <v>819.58399999999995</v>
       </c>
       <c r="G20">
-        <v>4085.05</v>
+        <v>3178.9140000000002</v>
       </c>
       <c r="H20">
-        <v>46265.650999999998</v>
+        <v>28581.151000000002</v>
       </c>
       <c r="I20">
-        <v>1013.026</v>
+        <v>871.24400000000003</v>
       </c>
       <c r="J20">
-        <v>12092.041999999999</v>
+        <v>7843.7049999999999</v>
       </c>
       <c r="K20">
-        <v>939.98500000000001</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3998.3710000000001</v>
+        <v>2246.384</v>
       </c>
       <c r="O20">
-        <v>35802.695</v>
+        <v>20220.207999999999</v>
       </c>
       <c r="P20">
-        <v>13857.791999999999</v>
+        <v>8524.6180000000004</v>
       </c>
       <c r="Q20">
-        <v>-270.17599999999999</v>
+        <v>129.75700000000001</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>10462.956</v>
+        <v>8360.9429999999993</v>
       </c>
       <c r="U20">
-        <v>910.37</v>
+        <v>614.69000000000005</v>
       </c>
       <c r="V20">
-        <v>727.40300000000002</v>
+        <v>276.387</v>
       </c>
       <c r="W20">
-        <v>-149.00200000000001</v>
+        <v>-113.849</v>
       </c>
       <c r="X20">
-        <v>-327.36700000000002</v>
+        <v>-30.66</v>
       </c>
       <c r="Y20">
-        <v>28.382000000000001</v>
+        <v>170.322</v>
       </c>
       <c r="Z20">
-        <v>-54.3</v>
+        <v>502.863</v>
       </c>
       <c r="AA20">
-        <v>148.84299999999999</v>
+        <v>292.548</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-723.02700000000004</v>
+        <v>356.38799999999998</v>
       </c>
       <c r="D21">
-        <v>3371.4059999999999</v>
+        <v>2898.2579999999998</v>
       </c>
       <c r="E21">
-        <v>1142.155</v>
+        <v>1459.87</v>
       </c>
       <c r="F21">
-        <v>1261.211</v>
+        <v>1010.484</v>
       </c>
       <c r="G21">
-        <v>4117.3459999999995</v>
+        <v>4075.1579999999999</v>
       </c>
       <c r="H21">
-        <v>45041.605000000003</v>
+        <v>29966.741999999998</v>
       </c>
       <c r="I21">
-        <v>1042.173</v>
+        <v>1812.6010000000001</v>
       </c>
       <c r="J21">
-        <v>13052.547</v>
+        <v>8380.7659999999996</v>
       </c>
       <c r="K21">
-        <v>782.02200000000005</v>
+        <v>40.040999999999997</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3453.826</v>
+        <v>3215.5410000000002</v>
       </c>
       <c r="O21">
-        <v>35673.72</v>
+        <v>21747.727999999999</v>
       </c>
       <c r="P21">
-        <v>14143.637000000001</v>
+        <v>8851.3790000000008</v>
       </c>
       <c r="Q21">
-        <v>130.22800000000001</v>
+        <v>-8.6010000000000009</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>9367.8850000000002</v>
+        <v>8219.0139999999992</v>
       </c>
       <c r="U21">
-        <v>1040.598</v>
+        <v>598.03099999999995</v>
       </c>
       <c r="V21">
-        <v>1011.284</v>
+        <v>333.79599999999999</v>
       </c>
       <c r="W21">
-        <v>-149.00899999999999</v>
+        <v>-112.084</v>
       </c>
       <c r="X21">
-        <v>-64.772999999999996</v>
+        <v>188.01</v>
       </c>
       <c r="Y21">
-        <v>27.696999999999999</v>
+        <v>195.297</v>
       </c>
       <c r="Z21">
-        <v>38.698999999999998</v>
+        <v>-43.494999999999997</v>
       </c>
       <c r="AA21">
-        <v>-723.02700000000004</v>
+        <v>356.38799999999998</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>99.572999999999993</v>
+        <v>71.016000000000005</v>
       </c>
       <c r="D22">
-        <v>2508.5230000000001</v>
+        <v>2652.4160000000002</v>
       </c>
       <c r="E22">
-        <v>890.53599999999994</v>
+        <v>1076.482</v>
       </c>
       <c r="F22">
-        <v>749.93399999999997</v>
+        <v>626.23400000000004</v>
       </c>
       <c r="G22">
-        <v>4067.4119999999998</v>
+        <v>4062.6819999999998</v>
       </c>
       <c r="H22">
-        <v>44647.680999999997</v>
+        <v>30857.656999999999</v>
       </c>
       <c r="I22">
-        <v>1071.798</v>
+        <v>1655.787</v>
       </c>
       <c r="J22">
-        <v>13111.556</v>
+        <v>8824.4930000000004</v>
       </c>
       <c r="K22">
-        <v>494.34800000000001</v>
+        <v>40.040999999999997</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3089.9580000000001</v>
+        <v>3112.366</v>
       </c>
       <c r="O22">
-        <v>35072.705000000002</v>
+        <v>22649.462</v>
       </c>
       <c r="P22">
-        <v>13849.987999999999</v>
+        <v>9273.9380000000001</v>
       </c>
       <c r="Q22">
-        <v>310.363</v>
+        <v>-15.211</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>13579</v>
+        <v>13995</v>
       </c>
       <c r="T22">
-        <v>9574.9760000000006</v>
+        <v>8208.1949999999997</v>
       </c>
       <c r="U22">
-        <v>1350.961</v>
+        <v>582.82000000000005</v>
       </c>
       <c r="V22">
-        <v>941.53899999999999</v>
+        <v>360.86</v>
       </c>
       <c r="W22">
-        <v>-151.62899999999999</v>
+        <v>-112.071</v>
       </c>
       <c r="X22">
-        <v>-208.768</v>
+        <v>412.35399999999998</v>
       </c>
       <c r="Y22">
-        <v>27.001000000000001</v>
+        <v>175.005</v>
       </c>
       <c r="Z22">
-        <v>15.894</v>
+        <v>-9.7929999999999993</v>
       </c>
       <c r="AA22">
-        <v>99.572999999999993</v>
+        <v>71.016000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>229.96600000000001</v>
+        <v>193.62799999999999</v>
       </c>
       <c r="D23">
-        <v>2609.8519999999999</v>
+        <v>2568.0309999999999</v>
       </c>
       <c r="E23">
-        <v>822.65300000000002</v>
+        <v>801.77700000000004</v>
       </c>
       <c r="F23">
-        <v>1059.4169999999999</v>
+        <v>695.06700000000001</v>
       </c>
       <c r="G23">
-        <v>4001.1950000000002</v>
+        <v>3284.1039999999998</v>
       </c>
       <c r="H23">
-        <v>45933.881999999998</v>
+        <v>30516.045999999998</v>
       </c>
       <c r="I23">
-        <v>888.34900000000005</v>
+        <v>965.22900000000004</v>
       </c>
       <c r="J23">
-        <v>13500.14</v>
+        <v>8924.9310000000005</v>
       </c>
       <c r="K23">
-        <v>766.07899999999995</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="M23">
-        <v>-1903.67</v>
+        <v>-655.649</v>
       </c>
       <c r="N23">
-        <v>3839.348</v>
+        <v>2262.3539999999998</v>
       </c>
       <c r="O23">
-        <v>36254.75</v>
+        <v>21945.216</v>
       </c>
       <c r="P23">
-        <v>15092.003000000001</v>
+        <v>9316.9969999999994</v>
       </c>
       <c r="Q23">
-        <v>-259.31</v>
+        <v>169.566</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>9679.1319999999996</v>
+        <v>8570.83</v>
       </c>
       <c r="U23">
-        <v>1091.6510000000001</v>
+        <v>752.38599999999997</v>
       </c>
       <c r="V23">
-        <v>532.82100000000003</v>
+        <v>1012.515</v>
       </c>
       <c r="W23">
-        <v>-151.839</v>
+        <v>-112.19</v>
       </c>
       <c r="X23">
-        <v>1085.896</v>
+        <v>15.993</v>
       </c>
       <c r="Y23">
-        <v>26.29</v>
+        <v>149.67400000000001</v>
       </c>
       <c r="Z23">
-        <v>-196.50899999999999</v>
+        <v>12.34</v>
       </c>
       <c r="AA23">
-        <v>229.96600000000001</v>
+        <v>193.62799999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>567.31399999999996</v>
+        <v>281.803</v>
       </c>
       <c r="D24">
-        <v>2462.5619999999999</v>
+        <v>2628.502</v>
       </c>
       <c r="E24">
-        <v>932.49</v>
+        <v>690.35900000000004</v>
       </c>
       <c r="F24">
-        <v>990.12199999999996</v>
+        <v>773.69500000000005</v>
       </c>
       <c r="G24">
-        <v>3851.9279999999999</v>
+        <v>3301.9740000000002</v>
       </c>
       <c r="H24">
-        <v>45877.042000000001</v>
+        <v>30563.672999999999</v>
       </c>
       <c r="I24">
-        <v>967.08</v>
+        <v>984.94100000000003</v>
       </c>
       <c r="J24">
-        <v>13112.072</v>
+        <v>8979.7350000000006</v>
       </c>
       <c r="K24">
-        <v>1024.8879999999999</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>4021.8429999999998</v>
+        <v>2233.404</v>
       </c>
       <c r="O24">
-        <v>35801.07</v>
+        <v>21998.003000000001</v>
       </c>
       <c r="P24">
-        <v>14837.074000000001</v>
+        <v>9390.2340000000004</v>
       </c>
       <c r="Q24">
-        <v>-95.552000000000007</v>
+        <v>-23.452000000000002</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>10075.972</v>
+        <v>8565.67</v>
       </c>
       <c r="U24">
-        <v>996.09900000000005</v>
+        <v>728.93399999999997</v>
       </c>
       <c r="V24">
-        <v>719.25900000000001</v>
+        <v>468.02800000000002</v>
       </c>
       <c r="W24">
-        <v>-152.00399999999999</v>
+        <v>-112.268</v>
       </c>
       <c r="X24">
-        <v>-426.6</v>
+        <v>-295.42599999999999</v>
       </c>
       <c r="Y24">
-        <v>25.567</v>
+        <v>165.32400000000001</v>
       </c>
       <c r="Z24">
-        <v>196.566</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="AA24">
-        <v>567.31399999999996</v>
+        <v>281.80200000000002</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>388.16899999999998</v>
+        <v>388.88299999999998</v>
       </c>
       <c r="D25">
-        <v>3124.703</v>
+        <v>3254.7190000000001</v>
       </c>
       <c r="E25">
-        <v>1153.1790000000001</v>
+        <v>905.04200000000003</v>
       </c>
       <c r="F25">
-        <v>1384.7550000000001</v>
+        <v>1025.347</v>
       </c>
       <c r="G25">
-        <v>4340.0349999999999</v>
+        <v>3186.3339999999998</v>
       </c>
       <c r="H25">
-        <v>47738.180999999997</v>
+        <v>30557.653999999999</v>
       </c>
       <c r="I25">
-        <v>1063.1389999999999</v>
+        <v>869.18499999999995</v>
       </c>
       <c r="J25">
-        <v>13861.703</v>
+        <v>8614.1139999999996</v>
       </c>
       <c r="K25">
-        <v>433.363</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3451.7469999999998</v>
+        <v>2136.944</v>
       </c>
       <c r="O25">
-        <v>37435.934000000001</v>
+        <v>21643.859</v>
       </c>
       <c r="P25">
-        <v>15072.966</v>
+        <v>9043.125</v>
       </c>
       <c r="Q25">
-        <v>311.33499999999998</v>
+        <v>16.094000000000001</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>10302.246999999999</v>
+        <v>8913.7950000000001</v>
       </c>
       <c r="U25">
-        <v>1307.434</v>
+        <v>745.02800000000002</v>
       </c>
       <c r="V25">
-        <v>1000.3150000000001</v>
+        <v>776.81399999999996</v>
       </c>
       <c r="W25">
-        <v>-152.15</v>
+        <v>-112.646</v>
       </c>
       <c r="X25">
-        <v>27.274000000000001</v>
+        <v>-419.71100000000001</v>
       </c>
       <c r="Y25">
-        <v>24.957000000000001</v>
+        <v>183.83500000000001</v>
       </c>
       <c r="Z25">
-        <v>12.317</v>
+        <v>6.431</v>
       </c>
       <c r="AA25">
-        <v>388.17</v>
+        <v>388.88299999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-1769.067</v>
+        <v>268.28800000000001</v>
       </c>
       <c r="D26">
-        <v>2648.527</v>
+        <v>2480.904</v>
       </c>
       <c r="E26">
-        <v>1011.748</v>
+        <v>782.19299999999998</v>
       </c>
       <c r="F26">
-        <v>899.53599999999994</v>
+        <v>650.80600000000004</v>
       </c>
       <c r="G26">
-        <v>3684.268</v>
+        <v>3325.4340000000002</v>
       </c>
       <c r="H26">
-        <v>45904.434000000001</v>
+        <v>31082.731</v>
       </c>
       <c r="I26">
-        <v>1285.577</v>
+        <v>1122.596</v>
       </c>
       <c r="J26">
-        <v>14467.655000000001</v>
+        <v>8798.0869999999995</v>
       </c>
       <c r="K26">
-        <v>415.01100000000002</v>
+        <v>25.039000000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>3200.096</v>
+        <v>2465.13</v>
       </c>
       <c r="O26">
-        <v>37619.440000000002</v>
+        <v>22529.431</v>
       </c>
       <c r="P26">
-        <v>15274.571</v>
+        <v>9345.9809999999998</v>
       </c>
       <c r="Q26">
-        <v>-119.59</v>
+        <v>271.12400000000002</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>13513</v>
+        <v>13679</v>
       </c>
       <c r="T26">
-        <v>8284.9940000000006</v>
+        <v>8553.2999999999993</v>
       </c>
       <c r="U26">
-        <v>1187.8440000000001</v>
+        <v>1016.152</v>
       </c>
       <c r="V26">
-        <v>746.30399999999997</v>
+        <v>1190.482</v>
       </c>
       <c r="W26">
-        <v>-155.84200000000001</v>
+        <v>-111.85</v>
       </c>
       <c r="X26">
-        <v>1.6619999999999999</v>
+        <v>-384.58300000000003</v>
       </c>
       <c r="Y26">
-        <v>24.582000000000001</v>
+        <v>188.03299999999999</v>
       </c>
       <c r="Z26">
-        <v>-3.319</v>
+        <v>-62.853999999999999</v>
       </c>
       <c r="AA26">
-        <v>-1769.067</v>
+        <v>268.28800000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>82.605000000000004</v>
+        <v>212.19499999999999</v>
       </c>
       <c r="D27">
-        <v>2588.4580000000001</v>
+        <v>2694.06</v>
       </c>
       <c r="E27">
-        <v>838.92</v>
+        <v>617.01</v>
       </c>
       <c r="F27">
-        <v>923.70399999999995</v>
+        <v>855.05700000000002</v>
       </c>
       <c r="G27">
-        <v>3397.491</v>
+        <v>3296.1080000000002</v>
       </c>
       <c r="H27">
-        <v>45318.205999999998</v>
+        <v>31146.842000000001</v>
       </c>
       <c r="I27">
-        <v>1149.498</v>
+        <v>812.01800000000003</v>
       </c>
       <c r="J27">
-        <v>13927.204</v>
+        <v>9197.3279999999995</v>
       </c>
       <c r="K27">
-        <v>1323.39</v>
+        <v>25.039000000000001</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-811.69</v>
+        <v>-334.87299999999999</v>
       </c>
       <c r="N27">
-        <v>3879.0430000000001</v>
+        <v>2088.453</v>
       </c>
       <c r="O27">
-        <v>37057.832000000002</v>
+        <v>22954.620999999999</v>
       </c>
       <c r="P27">
-        <v>15610.597</v>
+        <v>9865.6129999999994</v>
       </c>
       <c r="Q27">
-        <v>-104.782</v>
+        <v>84.36</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>8260.3739999999998</v>
+        <v>8192.2209999999995</v>
       </c>
       <c r="U27">
-        <v>1083.0619999999999</v>
+        <v>1080.0229999999999</v>
       </c>
       <c r="V27">
-        <v>529.39300000000003</v>
+        <v>493.31799999999998</v>
       </c>
       <c r="W27">
-        <v>-156.07300000000001</v>
+        <v>-108.967</v>
       </c>
       <c r="X27">
-        <v>177.625</v>
+        <v>-159.46799999999999</v>
       </c>
       <c r="Y27">
-        <v>23.573</v>
+        <v>218.11799999999999</v>
       </c>
       <c r="Z27">
-        <v>-10.377000000000001</v>
+        <v>105.923</v>
       </c>
       <c r="AA27">
-        <v>82.605000000000004</v>
+        <v>212.19499999999999</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>409.923</v>
+        <v>267.60199999999998</v>
       </c>
       <c r="D28">
-        <v>2618.5500000000002</v>
+        <v>2769.3519999999999</v>
       </c>
       <c r="E28">
-        <v>982.15099999999995</v>
+        <v>770.20600000000002</v>
       </c>
       <c r="F28">
-        <v>972.851</v>
+        <v>888.46600000000001</v>
       </c>
       <c r="G28">
-        <v>3599.3440000000001</v>
+        <v>4036.8380000000002</v>
       </c>
       <c r="H28">
-        <v>46007.036999999997</v>
+        <v>33414.726999999999</v>
       </c>
       <c r="I28">
-        <v>1165.6990000000001</v>
+        <v>997.24699999999996</v>
       </c>
       <c r="J28">
-        <v>14307.759</v>
+        <v>10291.695</v>
       </c>
       <c r="K28">
-        <v>1248.9690000000001</v>
+        <v>25.039000000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4240.53</v>
+        <v>2490.0529999999999</v>
       </c>
       <c r="O28">
-        <v>37432.995999999999</v>
+        <v>25254.493999999999</v>
       </c>
       <c r="P28">
-        <v>16285.203</v>
+        <v>10927.338</v>
       </c>
       <c r="Q28">
-        <v>-148.56700000000001</v>
+        <v>219.71</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>8574.0409999999993</v>
+        <v>8160.2330000000002</v>
       </c>
       <c r="U28">
-        <v>934.495</v>
+        <v>1320.222</v>
       </c>
       <c r="V28">
-        <v>290.29000000000002</v>
+        <v>470.81400000000002</v>
       </c>
       <c r="W28">
-        <v>-156.136</v>
+        <v>-106.505</v>
       </c>
       <c r="X28">
-        <v>519.54700000000003</v>
+        <v>498.86500000000001</v>
       </c>
       <c r="Y28">
-        <v>23.178999999999998</v>
+        <v>185.98</v>
       </c>
       <c r="Z28">
-        <v>12.082000000000001</v>
+        <v>-31.954000000000001</v>
       </c>
       <c r="AA28">
-        <v>409.92200000000003</v>
+        <v>267.60199999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>398.19799999999998</v>
+        <v>461.15899999999999</v>
       </c>
       <c r="D29">
-        <v>3243.6280000000002</v>
+        <v>3289.087</v>
       </c>
       <c r="E29">
-        <v>1161.0139999999999</v>
+        <v>955.84299999999996</v>
       </c>
       <c r="F29">
-        <v>1404.2639999999999</v>
+        <v>1247.4190000000001</v>
       </c>
       <c r="G29">
-        <v>3471.2310000000002</v>
+        <v>4238.0649999999996</v>
       </c>
       <c r="H29">
-        <v>46398.442000000003</v>
+        <v>33758.517</v>
       </c>
       <c r="I29">
-        <v>1105.038</v>
+        <v>978.61400000000003</v>
       </c>
       <c r="J29">
-        <v>13977.522000000001</v>
+        <v>10147.126</v>
       </c>
       <c r="K29">
-        <v>1352.6880000000001</v>
+        <v>83.037000000000006</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4460.8710000000001</v>
+        <v>2723.5079999999998</v>
       </c>
       <c r="O29">
-        <v>37505.019999999997</v>
+        <v>25417.075000000001</v>
       </c>
       <c r="P29">
-        <v>16224.243</v>
+        <v>11187.312</v>
       </c>
       <c r="Q29">
-        <v>-388.20400000000001</v>
+        <v>146.46299999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>8893.4220000000005</v>
+        <v>8341.4419999999991</v>
       </c>
       <c r="U29">
-        <v>546.29100000000005</v>
+        <v>1466.6849999999999</v>
       </c>
       <c r="V29">
-        <v>893.06799999999998</v>
+        <v>662.62</v>
       </c>
       <c r="W29">
-        <v>-156.18700000000001</v>
+        <v>-146.102</v>
       </c>
       <c r="X29">
-        <v>-223.75399999999999</v>
+        <v>-81.613</v>
       </c>
       <c r="Y29">
-        <v>22.783000000000001</v>
+        <v>176.648</v>
       </c>
       <c r="Z29">
-        <v>-113.922</v>
+        <v>-2.1989999999999998</v>
       </c>
       <c r="AA29">
-        <v>398.19799999999998</v>
+        <v>461.15899999999999</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-479.11399999999998</v>
+        <v>193.893</v>
       </c>
       <c r="D30">
-        <v>2623.8449999999998</v>
+        <v>2731.9</v>
       </c>
       <c r="E30">
-        <v>1043.5730000000001</v>
+        <v>873.01099999999997</v>
       </c>
       <c r="F30">
-        <v>998.178</v>
+        <v>765.25</v>
       </c>
       <c r="G30">
-        <v>3285.3310000000001</v>
+        <v>3958.2469999999998</v>
       </c>
       <c r="H30">
-        <v>46707.148999999998</v>
+        <v>33643.002</v>
       </c>
       <c r="I30">
-        <v>1452.2159999999999</v>
+        <v>1031.3</v>
       </c>
       <c r="J30">
-        <v>14315.259</v>
+        <v>9728.1350000000002</v>
       </c>
       <c r="K30">
-        <v>1578.308</v>
+        <v>25.036999999999999</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>5036.2070000000003</v>
+        <v>3256.7539999999999</v>
       </c>
       <c r="O30">
-        <v>38516.830999999998</v>
+        <v>25469.169000000002</v>
       </c>
       <c r="P30">
-        <v>16677.091</v>
+        <v>11122.982</v>
       </c>
       <c r="Q30">
-        <v>234.982</v>
+        <v>-212.95699999999999</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>13504</v>
+        <v>14185</v>
       </c>
       <c r="T30">
-        <v>8190.3180000000002</v>
+        <v>8173.8329999999996</v>
       </c>
       <c r="U30">
-        <v>781.27300000000002</v>
+        <v>1253.7280000000001</v>
       </c>
       <c r="V30">
-        <v>910.74900000000002</v>
+        <v>933.01800000000003</v>
       </c>
       <c r="W30">
-        <v>-160.489</v>
+        <v>-145.75299999999999</v>
       </c>
       <c r="X30">
-        <v>337.56</v>
+        <v>-479.37</v>
       </c>
       <c r="Y30">
-        <v>22.015000000000001</v>
+        <v>220.43799999999999</v>
       </c>
       <c r="Z30">
-        <v>113.295</v>
+        <v>-30.05</v>
       </c>
       <c r="AA30">
-        <v>-479.11399999999998</v>
+        <v>193.893</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>132.761</v>
+        <v>308.74900000000002</v>
       </c>
       <c r="D31">
-        <v>2723.8809999999999</v>
+        <v>2864.7339999999999</v>
       </c>
       <c r="E31">
-        <v>918.76199999999994</v>
+        <v>882.62400000000002</v>
       </c>
       <c r="F31">
-        <v>1058.2170000000001</v>
+        <v>1041.0650000000001</v>
       </c>
       <c r="G31">
-        <v>3655.7339999999999</v>
+        <v>3946.2460000000001</v>
       </c>
       <c r="H31">
-        <v>47281.525000000001</v>
+        <v>33764.767</v>
       </c>
       <c r="I31">
-        <v>1260.7180000000001</v>
+        <v>1040.8230000000001</v>
       </c>
       <c r="J31">
-        <v>15591.628000000001</v>
+        <v>9927.5550000000003</v>
       </c>
       <c r="K31">
-        <v>805.13099999999997</v>
+        <v>25.036999999999999</v>
       </c>
       <c r="L31">
-        <v>-773.17700000000002</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-734</v>
+        <v>-438.22699999999998</v>
       </c>
       <c r="N31">
-        <v>5232.6719999999996</v>
+        <v>3206.2429999999999</v>
       </c>
       <c r="O31">
-        <v>39108.783000000003</v>
+        <v>25780.550999999999</v>
       </c>
       <c r="P31">
-        <v>17679.817999999999</v>
+        <v>11291.841</v>
       </c>
       <c r="Q31">
-        <v>424.32299999999998</v>
+        <v>-338.02199999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>8172.7420000000002</v>
+        <v>7984.2160000000003</v>
       </c>
       <c r="U31">
-        <v>1205.596</v>
+        <v>915.70600000000002</v>
       </c>
       <c r="V31">
-        <v>557.39300000000003</v>
+        <v>448.17</v>
       </c>
       <c r="W31">
-        <v>-160.887</v>
+        <v>-144.57900000000001</v>
       </c>
       <c r="X31">
-        <v>841.36800000000005</v>
+        <v>-198.58799999999999</v>
       </c>
       <c r="Y31">
-        <v>21.632000000000001</v>
+        <v>275.80799999999999</v>
       </c>
       <c r="Z31">
-        <v>-0.40600000000000003</v>
+        <v>7.9740000000000002</v>
       </c>
       <c r="AA31">
-        <v>132.761</v>
+        <v>308.74900000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>245.42</v>
+        <v>270.95400000000001</v>
       </c>
       <c r="D32">
-        <v>2668.77</v>
+        <v>3264.2710000000002</v>
       </c>
       <c r="E32">
-        <v>1108.3820000000001</v>
+        <v>1082.231</v>
       </c>
       <c r="F32">
-        <v>910.471</v>
+        <v>1016.083</v>
       </c>
       <c r="G32">
-        <v>3534.45</v>
+        <v>4737.9949999999999</v>
       </c>
       <c r="H32">
-        <v>47622.648999999998</v>
+        <v>34693.341</v>
       </c>
       <c r="I32">
-        <v>1459.432</v>
+        <v>1388.8050000000001</v>
       </c>
       <c r="J32">
-        <v>14857.686</v>
+        <v>10755.654</v>
       </c>
       <c r="K32">
-        <v>1984.1030000000001</v>
+        <v>175.03700000000001</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>6232.0730000000003</v>
+        <v>3452.23</v>
       </c>
       <c r="O32">
-        <v>39402.417000000001</v>
+        <v>27059.517</v>
       </c>
       <c r="P32">
-        <v>17881.401999999998</v>
+        <v>11767.58</v>
       </c>
       <c r="Q32">
-        <v>-392.80900000000003</v>
+        <v>170.715</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>8220.232</v>
+        <v>7633.8239999999996</v>
       </c>
       <c r="U32">
-        <v>812.78700000000003</v>
+        <v>1086.421</v>
       </c>
       <c r="V32">
-        <v>522.53</v>
+        <v>465.399</v>
       </c>
       <c r="W32">
-        <v>-160.934</v>
+        <v>-143.59299999999999</v>
       </c>
       <c r="X32">
-        <v>39.914999999999999</v>
+        <v>125.786</v>
       </c>
       <c r="Y32">
-        <v>21.263000000000002</v>
+        <v>287.64100000000002</v>
       </c>
       <c r="Z32">
-        <v>-10.363</v>
+        <v>-103.14</v>
       </c>
       <c r="AA32">
-        <v>245.42099999999999</v>
+        <v>270.95400000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>536.37900000000002</v>
+        <v>470.28899999999999</v>
       </c>
       <c r="D33">
-        <v>3104.319</v>
+        <v>3963.884</v>
       </c>
       <c r="E33">
-        <v>1200.431</v>
+        <v>1191.6079999999999</v>
       </c>
       <c r="F33">
-        <v>1043.72</v>
+        <v>1234.5340000000001</v>
       </c>
       <c r="G33">
-        <v>3694.5459999999998</v>
+        <v>5886.9639999999999</v>
       </c>
       <c r="H33">
-        <v>48471.171999999999</v>
+        <v>36457.964</v>
       </c>
       <c r="I33">
-        <v>1392.114</v>
+        <v>1919.1130000000001</v>
       </c>
       <c r="J33">
-        <v>15780.826999999999</v>
+        <v>11952.591</v>
       </c>
       <c r="K33">
-        <v>1946.6769999999999</v>
+        <v>25.033999999999999</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>5750.5630000000001</v>
+        <v>3319.357</v>
       </c>
       <c r="O33">
-        <v>39860.688999999998</v>
+        <v>28170.018</v>
       </c>
       <c r="P33">
-        <v>18484.866000000002</v>
+        <v>12655.735000000001</v>
       </c>
       <c r="Q33">
-        <v>175.19399999999999</v>
+        <v>1469.4670000000001</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>8610.4830000000002</v>
+        <v>8287.9459999999999</v>
       </c>
       <c r="U33">
-        <v>987.98099999999999</v>
+        <v>2555.8879999999999</v>
       </c>
       <c r="V33">
-        <v>779.58100000000002</v>
+        <v>1779.2449999999999</v>
       </c>
       <c r="W33">
-        <v>-161.04400000000001</v>
+        <v>-142.86000000000001</v>
       </c>
       <c r="X33">
-        <v>466.40199999999999</v>
+        <v>623.57000000000005</v>
       </c>
       <c r="Y33">
-        <v>20.887</v>
+        <v>308.82600000000002</v>
       </c>
       <c r="Z33">
-        <v>-25.370999999999999</v>
+        <v>-132.81</v>
       </c>
       <c r="AA33">
-        <v>536.37900000000002</v>
+        <v>470.28899999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-65.899000000000001</v>
+        <v>170.57400000000001</v>
       </c>
       <c r="D34">
-        <v>2512.482</v>
+        <v>3000.8679999999999</v>
       </c>
       <c r="E34">
-        <v>946.68299999999999</v>
+        <v>991.50800000000004</v>
       </c>
       <c r="F34">
-        <v>832.52700000000004</v>
+        <v>778.59100000000001</v>
       </c>
       <c r="G34">
-        <v>2958.0639999999999</v>
+        <v>5160.3890000000001</v>
       </c>
       <c r="H34">
-        <v>48275.065999999999</v>
+        <v>36616.817999999999</v>
       </c>
       <c r="I34">
-        <v>1496.058</v>
+        <v>1475.7449999999999</v>
       </c>
       <c r="J34">
-        <v>15518.303</v>
+        <v>11174.289000000001</v>
       </c>
       <c r="K34">
-        <v>1942.3389999999999</v>
+        <v>55.033999999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>5443.5439999999999</v>
+        <v>3765.8939999999998</v>
       </c>
       <c r="O34">
-        <v>39211.358999999997</v>
+        <v>28339.197</v>
       </c>
       <c r="P34">
-        <v>18132.648000000001</v>
+        <v>12279.269</v>
       </c>
       <c r="Q34">
-        <v>-507.00599999999997</v>
+        <v>-635.39700000000005</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>13688</v>
+        <v>14669</v>
       </c>
       <c r="T34">
-        <v>9063.7070000000003</v>
+        <v>8277.6209999999992</v>
       </c>
       <c r="U34">
-        <v>480.97500000000002</v>
+        <v>1920.491</v>
       </c>
       <c r="V34">
-        <v>525.74300000000005</v>
+        <v>631.51400000000001</v>
       </c>
       <c r="W34">
-        <v>-164.839</v>
+        <v>-142.01300000000001</v>
       </c>
       <c r="X34">
-        <v>72.757000000000005</v>
+        <v>-621.52499999999998</v>
       </c>
       <c r="Y34">
-        <v>19.11</v>
+        <v>343.09300000000002</v>
       </c>
       <c r="Z34">
-        <v>-18.36</v>
+        <v>155.143</v>
       </c>
       <c r="AA34">
-        <v>-65.899000000000001</v>
+        <v>170.57400000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>254.53700000000001</v>
+        <v>235.33500000000001</v>
       </c>
       <c r="D35">
-        <v>2609.5839999999998</v>
+        <v>2789.1120000000001</v>
       </c>
       <c r="E35">
-        <v>916.41600000000005</v>
+        <v>839.95600000000002</v>
       </c>
       <c r="F35">
-        <v>958.255</v>
+        <v>918.04399999999998</v>
       </c>
       <c r="G35">
-        <v>3407.7759999999998</v>
+        <v>4865.366</v>
       </c>
       <c r="H35">
-        <v>49605.381000000001</v>
+        <v>36612.587</v>
       </c>
       <c r="I35">
-        <v>1406.327</v>
+        <v>874.06799999999998</v>
       </c>
       <c r="J35">
-        <v>17167.885999999999</v>
+        <v>10921.434999999999</v>
       </c>
       <c r="K35">
-        <v>1942.3219999999999</v>
+        <v>80.034000000000006</v>
       </c>
       <c r="L35">
-        <v>-1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-2298.855</v>
+        <v>-215.023</v>
       </c>
       <c r="N35">
-        <v>4861.0829999999996</v>
+        <v>3254.1170000000002</v>
       </c>
       <c r="O35">
-        <v>40415.587</v>
+        <v>27671.15</v>
       </c>
       <c r="P35">
-        <v>19551.45</v>
+        <v>12033.788</v>
       </c>
       <c r="Q35">
-        <v>502.52100000000002</v>
+        <v>-117.533</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>9189.7939999999999</v>
+        <v>8941.4369999999999</v>
       </c>
       <c r="U35">
-        <v>983.49599999999998</v>
+        <v>1802.9580000000001</v>
       </c>
       <c r="V35">
-        <v>501.18900000000002</v>
+        <v>374.61900000000003</v>
       </c>
       <c r="W35">
-        <v>-172.59100000000001</v>
+        <v>-142.08500000000001</v>
       </c>
       <c r="X35">
-        <v>952.29</v>
+        <v>153.80799999999999</v>
       </c>
       <c r="Y35">
-        <v>226.52099999999999</v>
+        <v>294.25700000000001</v>
       </c>
       <c r="Z35">
-        <v>39.045000000000002</v>
+        <v>7.3390000000000004</v>
       </c>
       <c r="AA35">
-        <v>254.53700000000001</v>
+        <v>235.33500000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>236.42400000000001</v>
+        <v>226.81299999999999</v>
       </c>
       <c r="D36">
-        <v>2666.2089999999998</v>
+        <v>2520.7890000000002</v>
       </c>
       <c r="E36">
-        <v>1104.1410000000001</v>
+        <v>889.13900000000001</v>
       </c>
       <c r="F36">
-        <v>960.19299999999998</v>
+        <v>920.22</v>
       </c>
       <c r="G36">
-        <v>3283.5079999999998</v>
+        <v>4430.0659999999998</v>
       </c>
       <c r="H36">
-        <v>50565.745000000003</v>
+        <v>36485.22</v>
       </c>
       <c r="I36">
-        <v>1412.607</v>
+        <v>949.75800000000004</v>
       </c>
       <c r="J36">
-        <v>17204.288</v>
+        <v>10184.849</v>
       </c>
       <c r="K36">
-        <v>1635.462</v>
+        <v>55.033999999999999</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>4522.6080000000002</v>
+        <v>3501.2190000000001</v>
       </c>
       <c r="O36">
-        <v>40548.815000000002</v>
+        <v>27407.696</v>
       </c>
       <c r="P36">
-        <v>19288.433000000001</v>
+        <v>11510.294</v>
       </c>
       <c r="Q36">
-        <v>-347.58699999999999</v>
+        <v>-522.05100000000004</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>10016.93</v>
+        <v>9077.5239999999994</v>
       </c>
       <c r="U36">
-        <v>635.90899999999999</v>
+        <v>1280.9069999999999</v>
       </c>
       <c r="V36">
-        <v>551.90099999999995</v>
+        <v>641.73</v>
       </c>
       <c r="W36">
-        <v>-172.86099999999999</v>
+        <v>-147.07400000000001</v>
       </c>
       <c r="X36">
-        <v>174.55500000000001</v>
+        <v>-689.75699999999995</v>
       </c>
       <c r="Y36">
-        <v>235.61099999999999</v>
+        <v>300.02499999999998</v>
       </c>
       <c r="Z36">
-        <v>12.028</v>
+        <v>9.7720000000000002</v>
       </c>
       <c r="AA36">
-        <v>236.42400000000001</v>
+        <v>226.81299999999999</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>365.24</v>
+        <v>455.16899999999998</v>
       </c>
       <c r="D37">
-        <v>3140.5749999999998</v>
+        <v>2937.0949999999998</v>
       </c>
       <c r="E37">
-        <v>1205.8240000000001</v>
+        <v>937.79</v>
       </c>
       <c r="F37">
-        <v>1369.557</v>
+        <v>1246.6410000000001</v>
       </c>
       <c r="G37">
-        <v>3661.672</v>
+        <v>3966.8029999999999</v>
       </c>
       <c r="H37">
-        <v>50506.267999999996</v>
+        <v>36170.334999999999</v>
       </c>
       <c r="I37">
-        <v>1328.6310000000001</v>
+        <v>818.34900000000005</v>
       </c>
       <c r="J37">
-        <v>16938.013999999999</v>
+        <v>9972.0910000000003</v>
       </c>
       <c r="K37">
-        <v>1917.788</v>
+        <v>55.030999999999999</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>5103.0460000000003</v>
+        <v>3374.194</v>
       </c>
       <c r="O37">
-        <v>40216.796000000002</v>
+        <v>27377.764999999999</v>
       </c>
       <c r="P37">
-        <v>19677.3</v>
+        <v>11522.008</v>
       </c>
       <c r="Q37">
-        <v>319.92200000000003</v>
+        <v>-150.12700000000001</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>10289.472</v>
+        <v>8792.57</v>
       </c>
       <c r="U37">
-        <v>955.83100000000002</v>
+        <v>1130.78</v>
       </c>
       <c r="V37">
-        <v>1064.857</v>
+        <v>992.98199999999997</v>
       </c>
       <c r="W37">
-        <v>-180.95599999999999</v>
+        <v>-146.01900000000001</v>
       </c>
       <c r="X37">
-        <v>254.99</v>
+        <v>-815.21400000000006</v>
       </c>
       <c r="Y37">
-        <v>237.65600000000001</v>
+        <v>374.17700000000002</v>
       </c>
       <c r="Z37">
-        <v>-20.702999999999999</v>
+        <v>12.456</v>
       </c>
       <c r="AA37">
-        <v>365.24</v>
+        <v>455.16899999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>385.02499999999998</v>
+        <v>313.77499999999998</v>
       </c>
       <c r="D38">
-        <v>2462.306</v>
+        <v>2498.654</v>
       </c>
       <c r="E38">
-        <v>988.72199999999998</v>
+        <v>828.524</v>
       </c>
       <c r="F38">
-        <v>981.86300000000006</v>
+        <v>977.29100000000005</v>
       </c>
       <c r="G38">
-        <v>3045.9920000000002</v>
+        <v>4534.1610000000001</v>
       </c>
       <c r="H38">
-        <v>51723.911999999997</v>
+        <v>37561.953000000001</v>
       </c>
       <c r="I38">
-        <v>1499.8610000000001</v>
+        <v>998.22799999999995</v>
       </c>
       <c r="J38">
-        <v>17078.643</v>
+        <v>10705.737999999999</v>
       </c>
       <c r="K38">
-        <v>1946.7270000000001</v>
+        <v>30.030999999999999</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>5620.4629999999997</v>
+        <v>3193.9969999999998</v>
       </c>
       <c r="O38">
-        <v>41245.826999999997</v>
+        <v>28637.25</v>
       </c>
       <c r="P38">
-        <v>20119.207999999999</v>
+        <v>12014.455</v>
       </c>
       <c r="Q38">
-        <v>-530.10900000000004</v>
+        <v>578.77099999999996</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>13635</v>
+        <v>15181</v>
       </c>
       <c r="T38">
-        <v>10478.084999999999</v>
+        <v>8924.7029999999995</v>
       </c>
       <c r="U38">
-        <v>425.72199999999998</v>
+        <v>1709.5509999999999</v>
       </c>
       <c r="V38">
-        <v>698.68</v>
+        <v>923.827</v>
       </c>
       <c r="W38">
-        <v>-185.16499999999999</v>
+        <v>-141.77799999999999</v>
       </c>
       <c r="X38">
-        <v>256.52699999999999</v>
+        <v>302.77499999999998</v>
       </c>
       <c r="Y38">
-        <v>234.73500000000001</v>
+        <v>354.233</v>
       </c>
       <c r="Z38">
-        <v>-5.0999999999999997E-2</v>
+        <v>71.388999999999996</v>
       </c>
       <c r="AA38">
-        <v>385.02499999999998</v>
+        <v>313.77499999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>118.714</v>
+        <v>213.79900000000001</v>
       </c>
       <c r="D39">
-        <v>2427.1790000000001</v>
+        <v>2759.3470000000002</v>
       </c>
       <c r="E39">
-        <v>963.70500000000004</v>
+        <v>792.88199999999995</v>
       </c>
       <c r="F39">
-        <v>1060.8599999999999</v>
+        <v>960.99800000000005</v>
       </c>
       <c r="G39">
-        <v>3973.951</v>
+        <v>4732.62</v>
       </c>
       <c r="H39">
-        <v>52555.029000000002</v>
+        <v>38109.402000000002</v>
       </c>
       <c r="I39">
-        <v>1502.3920000000001</v>
+        <v>877.09299999999996</v>
       </c>
       <c r="J39">
-        <v>18228.527999999998</v>
+        <v>11136.734</v>
       </c>
       <c r="K39">
-        <v>1941.816</v>
+        <v>175.49799999999999</v>
       </c>
       <c r="L39">
-        <v>-4.9109999999999996</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>-1614.578</v>
+        <v>-113.657</v>
       </c>
       <c r="N39">
-        <v>6017.9390000000003</v>
+        <v>3059.7809999999999</v>
       </c>
       <c r="O39">
-        <v>42076.677000000003</v>
+        <v>28938.601999999999</v>
       </c>
       <c r="P39">
-        <v>21400.359</v>
+        <v>12151.661</v>
       </c>
       <c r="Q39">
-        <v>1038.1110000000001</v>
+        <v>-52.517000000000003</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>10478.352000000001</v>
+        <v>9170.7999999999993</v>
       </c>
       <c r="U39">
-        <v>1463.8330000000001</v>
+        <v>1657.0340000000001</v>
       </c>
       <c r="V39">
-        <v>659.06</v>
+        <v>674.26499999999999</v>
       </c>
       <c r="W39">
-        <v>-185.76300000000001</v>
+        <v>-141.892</v>
       </c>
       <c r="X39">
-        <v>1424.538</v>
+        <v>-211.941</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>36.619999999999997</v>
       </c>
       <c r="Z39">
-        <v>2.2650000000000001</v>
+        <v>88.1</v>
       </c>
       <c r="AA39">
-        <v>118.714</v>
+        <v>213.79900000000001</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>360.53300000000002</v>
+        <v>315.26499999999999</v>
       </c>
       <c r="D40">
-        <v>2412.788</v>
+        <v>2862.95</v>
       </c>
       <c r="E40">
-        <v>1057.7170000000001</v>
+        <v>988.99300000000005</v>
       </c>
       <c r="F40">
-        <v>1078.6669999999999</v>
+        <v>1050.521</v>
       </c>
       <c r="G40">
-        <v>3546.9960000000001</v>
+        <v>4362.5219999999999</v>
       </c>
       <c r="H40">
-        <v>53365.302000000003</v>
+        <v>37752.074000000001</v>
       </c>
       <c r="I40">
-        <v>1509.355</v>
+        <v>976.74</v>
       </c>
       <c r="J40">
-        <v>18278.358</v>
+        <v>11020.325999999999</v>
       </c>
       <c r="K40">
-        <v>1946.2190000000001</v>
+        <v>203.97399999999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>6115.9009999999998</v>
+        <v>2806.5039999999999</v>
       </c>
       <c r="O40">
-        <v>42684.904000000002</v>
+        <v>28670.612000000001</v>
       </c>
       <c r="P40">
-        <v>21429.592000000001</v>
+        <v>11853.183999999999</v>
       </c>
       <c r="Q40">
-        <v>-528.36500000000001</v>
+        <v>-321.51</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>10680.397999999999</v>
+        <v>9081.4619999999995</v>
       </c>
       <c r="U40">
-        <v>935.46799999999996</v>
+        <v>1335.5239999999999</v>
       </c>
       <c r="V40">
-        <v>789.24699999999996</v>
+        <v>793.56899999999996</v>
       </c>
       <c r="W40">
-        <v>-186.15100000000001</v>
+        <v>-156.904</v>
       </c>
       <c r="X40">
-        <v>-164.90600000000001</v>
+        <v>-457.78100000000001</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>35.997999999999998</v>
       </c>
       <c r="Z40">
-        <v>-3.0000000000000001E-3</v>
+        <v>-32.67</v>
       </c>
       <c r="AA40">
-        <v>360.53300000000002</v>
+        <v>315.26600000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>521.11900000000003</v>
+        <v>492.887</v>
       </c>
       <c r="D41">
-        <v>2903.5680000000002</v>
+        <v>3332.1759999999999</v>
       </c>
       <c r="E41">
-        <v>1224.7460000000001</v>
+        <v>1057.53</v>
       </c>
       <c r="F41">
-        <v>1421.2550000000001</v>
+        <v>1225.046</v>
       </c>
       <c r="G41">
-        <v>4062.8049999999998</v>
+        <v>5047.4629999999997</v>
       </c>
       <c r="H41">
-        <v>56070.250999999997</v>
+        <v>38668.207000000002</v>
       </c>
       <c r="I41">
-        <v>2872.4470000000001</v>
+        <v>1009.194</v>
       </c>
       <c r="J41">
-        <v>19612.664000000001</v>
+        <v>11444.513000000001</v>
       </c>
       <c r="K41">
-        <v>1398.2049999999999</v>
+        <v>167.91499999999999</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>6875.5259999999998</v>
+        <v>2914.1860000000001</v>
       </c>
       <c r="O41">
-        <v>45044.002</v>
+        <v>29625.719000000001</v>
       </c>
       <c r="P41">
-        <v>22060.883999999998</v>
+        <v>12247.436</v>
       </c>
       <c r="Q41">
-        <v>304.19600000000003</v>
+        <v>595.39499999999998</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>11026.249</v>
+        <v>9042.4879999999994</v>
       </c>
       <c r="U41">
-        <v>1239.664</v>
+        <v>1930.9190000000001</v>
       </c>
       <c r="V41">
-        <v>921.85900000000004</v>
+        <v>1697.2550000000001</v>
       </c>
       <c r="W41">
-        <v>-186.20699999999999</v>
+        <v>-154.887</v>
       </c>
       <c r="X41">
-        <v>440.02600000000001</v>
+        <v>-279.505</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>42.872999999999998</v>
       </c>
       <c r="Z41">
-        <v>-12.083</v>
+        <v>62.265999999999998</v>
       </c>
       <c r="AA41">
-        <v>521.11900000000003</v>
+        <v>492.88600000000002</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>228.291</v>
+      </c>
+      <c r="D42">
+        <v>2533.1039999999998</v>
+      </c>
+      <c r="E42">
+        <v>873.92</v>
+      </c>
+      <c r="F42">
+        <v>935.59</v>
+      </c>
+      <c r="G42">
+        <v>4339.0829999999996</v>
+      </c>
+      <c r="H42">
+        <v>38685.275999999998</v>
+      </c>
+      <c r="I42">
+        <v>1181.0989999999999</v>
+      </c>
+      <c r="J42">
+        <v>11317.156999999999</v>
+      </c>
+      <c r="K42">
+        <v>154.13499999999999</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2776.2489999999998</v>
+      </c>
+      <c r="O42">
+        <v>29878.137999999999</v>
+      </c>
+      <c r="P42">
+        <v>11816.306</v>
+      </c>
+      <c r="Q42">
+        <v>-636.447</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>14958</v>
+      </c>
+      <c r="T42">
+        <v>8807.1380000000008</v>
+      </c>
+      <c r="U42">
+        <v>1294.472</v>
+      </c>
+      <c r="V42">
+        <v>760.99199999999996</v>
+      </c>
+      <c r="W42">
+        <v>-150.17099999999999</v>
+      </c>
+      <c r="X42">
+        <v>-818.048</v>
+      </c>
+      <c r="Y42">
+        <v>42.078000000000003</v>
+      </c>
+      <c r="Z42">
+        <v>-92.74</v>
+      </c>
+      <c r="AA42">
+        <v>228.291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>248.66300000000001</v>
+      </c>
+      <c r="D43">
+        <v>2541.2080000000001</v>
+      </c>
+      <c r="E43">
+        <v>790.84299999999996</v>
+      </c>
+      <c r="F43">
+        <v>951.16399999999999</v>
+      </c>
+      <c r="G43">
+        <v>3777.5859999999998</v>
+      </c>
+      <c r="H43">
+        <v>38598.565999999999</v>
+      </c>
+      <c r="I43">
+        <v>986.30700000000002</v>
+      </c>
+      <c r="J43">
+        <v>11581.317999999999</v>
+      </c>
+      <c r="K43">
+        <v>183.07900000000001</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-278.084</v>
+      </c>
+      <c r="N43">
+        <v>2310.7440000000001</v>
+      </c>
+      <c r="O43">
+        <v>29752.686000000002</v>
+      </c>
+      <c r="P43">
+        <v>12017.7</v>
+      </c>
+      <c r="Q43">
+        <v>-568.23500000000001</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>8845.8799999999992</v>
+      </c>
+      <c r="U43">
+        <v>726.23699999999997</v>
+      </c>
+      <c r="V43">
+        <v>323.101</v>
+      </c>
+      <c r="W43">
+        <v>-148.678</v>
+      </c>
+      <c r="X43">
+        <v>5.7869999999999999</v>
+      </c>
+      <c r="Y43">
+        <v>41.186999999999998</v>
+      </c>
+      <c r="Z43">
+        <v>-21.212</v>
+      </c>
+      <c r="AA43">
+        <v>248.66300000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>315.58300000000003</v>
+      </c>
+      <c r="D44">
+        <v>2803.279</v>
+      </c>
+      <c r="E44">
+        <v>1040.912</v>
+      </c>
+      <c r="F44">
+        <v>1013.2569999999999</v>
+      </c>
+      <c r="G44">
+        <v>3863.1419999999998</v>
+      </c>
+      <c r="H44">
+        <v>39129.760999999999</v>
+      </c>
+      <c r="I44">
+        <v>1044.2170000000001</v>
+      </c>
+      <c r="J44">
+        <v>12057.368</v>
+      </c>
+      <c r="K44">
+        <v>130.79499999999999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>2242.404</v>
+      </c>
+      <c r="O44">
+        <v>30221.45</v>
+      </c>
+      <c r="P44">
+        <v>12360.001</v>
+      </c>
+      <c r="Q44">
+        <v>-196.37899999999999</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>8908.3109999999997</v>
+      </c>
+      <c r="U44">
+        <v>529.85799999999995</v>
+      </c>
+      <c r="V44">
+        <v>654.14800000000002</v>
+      </c>
+      <c r="W44">
+        <v>-147.67699999999999</v>
+      </c>
+      <c r="X44">
+        <v>80.382999999999996</v>
+      </c>
+      <c r="Y44">
+        <v>40.177</v>
+      </c>
+      <c r="Z44">
+        <v>-21.782</v>
+      </c>
+      <c r="AA44">
+        <v>315.58300000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>628.05399999999997</v>
+      </c>
+      <c r="D45">
+        <v>3395.5529999999999</v>
+      </c>
+      <c r="E45">
+        <v>1087.3109999999999</v>
+      </c>
+      <c r="F45">
+        <v>1296.8489999999999</v>
+      </c>
+      <c r="G45">
+        <v>4154.4979999999996</v>
+      </c>
+      <c r="H45">
+        <v>39161.498</v>
+      </c>
+      <c r="I45">
+        <v>882.65099999999995</v>
+      </c>
+      <c r="J45">
+        <v>10241.993</v>
+      </c>
+      <c r="K45">
+        <v>144.87100000000001</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4161.3429999999998</v>
+      </c>
+      <c r="O45">
+        <v>29885.387999999999</v>
+      </c>
+      <c r="P45">
+        <v>12452.192999999999</v>
+      </c>
+      <c r="Q45">
+        <v>457.28199999999998</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>9276.11</v>
+      </c>
+      <c r="U45">
+        <v>987.14</v>
+      </c>
+      <c r="V45">
+        <v>1152.5070000000001</v>
+      </c>
+      <c r="W45">
+        <v>-146.935</v>
+      </c>
+      <c r="X45">
+        <v>-127.98</v>
+      </c>
+      <c r="Y45">
+        <v>39.341000000000001</v>
+      </c>
+      <c r="Z45">
+        <v>-17.699000000000002</v>
+      </c>
+      <c r="AA45">
+        <v>628.05399999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>154.13900000000001</v>
+      </c>
+      <c r="D46">
+        <v>2489.0320000000002</v>
+      </c>
+      <c r="E46">
+        <v>835.68200000000002</v>
+      </c>
+      <c r="F46">
+        <v>800.44500000000005</v>
+      </c>
+      <c r="G46">
+        <v>3622.703</v>
+      </c>
+      <c r="H46">
+        <v>40701.699000000001</v>
+      </c>
+      <c r="I46">
+        <v>1069.096</v>
+      </c>
+      <c r="J46">
+        <v>10043.713</v>
+      </c>
+      <c r="K46">
+        <v>108.331</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>4950.6989999999996</v>
+      </c>
+      <c r="O46">
+        <v>31459.918000000001</v>
+      </c>
+      <c r="P46">
+        <v>12386.829</v>
+      </c>
+      <c r="Q46">
+        <v>-292.702</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>14682</v>
+      </c>
+      <c r="T46">
+        <v>9241.7810000000009</v>
+      </c>
+      <c r="U46">
+        <v>694.43799999999999</v>
+      </c>
+      <c r="V46">
+        <v>999.06100000000004</v>
+      </c>
+      <c r="W46">
+        <v>-146.315</v>
+      </c>
+      <c r="X46">
+        <v>-240.47499999999999</v>
+      </c>
+      <c r="Y46">
+        <v>38.420999999999999</v>
+      </c>
+      <c r="Z46">
+        <v>49.07</v>
+      </c>
+      <c r="AA46">
+        <v>154.13900000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-151.68299999999999</v>
+      </c>
+      <c r="D47">
+        <v>2383.6590000000001</v>
+      </c>
+      <c r="E47">
+        <v>683.38599999999997</v>
+      </c>
+      <c r="F47">
+        <v>774.33699999999999</v>
+      </c>
+      <c r="G47">
+        <v>3476.337</v>
+      </c>
+      <c r="H47">
+        <v>40930.224000000002</v>
+      </c>
+      <c r="I47">
+        <v>916.24800000000005</v>
+      </c>
+      <c r="J47">
+        <v>12121.105</v>
+      </c>
+      <c r="K47">
+        <v>141.113</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-859.64800000000002</v>
+      </c>
+      <c r="N47">
+        <v>2910.654</v>
+      </c>
+      <c r="O47">
+        <v>31735.454000000002</v>
+      </c>
+      <c r="P47">
+        <v>12618.656000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-9.4359999999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>9194.77</v>
+      </c>
+      <c r="U47">
+        <v>685.00199999999995</v>
+      </c>
+      <c r="V47">
+        <v>600.5</v>
+      </c>
+      <c r="W47">
+        <v>-146.67400000000001</v>
+      </c>
+      <c r="X47">
+        <v>139.649</v>
+      </c>
+      <c r="Y47">
+        <v>37.470999999999997</v>
+      </c>
+      <c r="Z47">
+        <v>93.786000000000001</v>
+      </c>
+      <c r="AA47">
+        <v>-151.68299999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>365.00099999999998</v>
+      </c>
+      <c r="D48">
+        <v>2518.6</v>
+      </c>
+      <c r="E48">
+        <v>889.81899999999996</v>
+      </c>
+      <c r="F48">
+        <v>905.44200000000001</v>
+      </c>
+      <c r="G48">
+        <v>3203.5</v>
+      </c>
+      <c r="H48">
+        <v>40917.605000000003</v>
+      </c>
+      <c r="I48">
+        <v>1035.8340000000001</v>
+      </c>
+      <c r="J48">
+        <v>11968.934999999999</v>
+      </c>
+      <c r="K48">
+        <v>103.71599999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3041.9430000000002</v>
+      </c>
+      <c r="O48">
+        <v>31607.098999999998</v>
+      </c>
+      <c r="P48">
+        <v>12533.306</v>
+      </c>
+      <c r="Q48">
+        <v>-401.60899999999998</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>9310.5059999999994</v>
+      </c>
+      <c r="U48">
+        <v>283.39299999999997</v>
+      </c>
+      <c r="V48">
+        <v>587.41899999999998</v>
+      </c>
+      <c r="W48">
+        <v>-147.06700000000001</v>
+      </c>
+      <c r="X48">
+        <v>-238.30600000000001</v>
+      </c>
+      <c r="Y48">
+        <v>36.512999999999998</v>
+      </c>
+      <c r="Z48">
+        <v>-56.71</v>
+      </c>
+      <c r="AA48">
+        <v>365.00099999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>337.08699999999999</v>
+      </c>
+      <c r="D49">
+        <v>2963.56</v>
+      </c>
+      <c r="E49">
+        <v>992.24099999999999</v>
+      </c>
+      <c r="F49">
+        <v>1202.914</v>
+      </c>
+      <c r="G49">
+        <v>3807.75</v>
+      </c>
+      <c r="H49">
+        <v>42023.68</v>
+      </c>
+      <c r="I49">
+        <v>1362.702</v>
+      </c>
+      <c r="J49">
+        <v>11748.153</v>
+      </c>
+      <c r="K49">
+        <v>356.17200000000003</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>3924.268</v>
+      </c>
+      <c r="O49">
+        <v>32552.648000000001</v>
+      </c>
+      <c r="P49">
+        <v>12931.383</v>
+      </c>
+      <c r="Q49">
+        <v>466.32600000000002</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>9471.0319999999992</v>
+      </c>
+      <c r="U49">
+        <v>749.71900000000005</v>
+      </c>
+      <c r="V49">
+        <v>1031.8689999999999</v>
+      </c>
+      <c r="W49">
+        <v>-147.55099999999999</v>
+      </c>
+      <c r="X49">
+        <v>257.79300000000001</v>
+      </c>
+      <c r="Y49">
+        <v>35.530999999999999</v>
+      </c>
+      <c r="Z49">
+        <v>-107.071</v>
+      </c>
+      <c r="AA49">
+        <v>337.08800000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>296.26799999999997</v>
+      </c>
+      <c r="D50">
+        <v>2436.259</v>
+      </c>
+      <c r="E50">
+        <v>840.30700000000002</v>
+      </c>
+      <c r="F50">
+        <v>849.35900000000004</v>
+      </c>
+      <c r="G50">
+        <v>3683.1260000000002</v>
+      </c>
+      <c r="H50">
+        <v>43202.502</v>
+      </c>
+      <c r="I50">
+        <v>1217.18</v>
+      </c>
+      <c r="J50">
+        <v>11920.317999999999</v>
+      </c>
+      <c r="K50">
+        <v>796.00199999999995</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4106.3209999999999</v>
+      </c>
+      <c r="O50">
+        <v>33724.902000000002</v>
+      </c>
+      <c r="P50">
+        <v>13473.257</v>
+      </c>
+      <c r="Q50">
+        <v>-217.15</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>14625</v>
+      </c>
+      <c r="T50">
+        <v>9477.6</v>
+      </c>
+      <c r="U50">
+        <v>532.56899999999996</v>
+      </c>
+      <c r="V50">
+        <v>720.49699999999996</v>
+      </c>
+      <c r="W50">
+        <v>-147.917</v>
+      </c>
+      <c r="X50">
+        <v>379.01499999999999</v>
+      </c>
+      <c r="Y50">
+        <v>34.540999999999997</v>
+      </c>
+      <c r="Z50">
+        <v>85.17</v>
+      </c>
+      <c r="AA50">
+        <v>296.26799999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>161.4</v>
+      </c>
+      <c r="D51">
+        <v>2608.8739999999998</v>
+      </c>
+      <c r="E51">
+        <v>873.58199999999999</v>
+      </c>
+      <c r="F51">
+        <v>910.43499999999995</v>
+      </c>
+      <c r="G51">
+        <v>3322.873</v>
+      </c>
+      <c r="H51">
+        <v>42792.972999999998</v>
+      </c>
+      <c r="I51">
+        <v>1036.1220000000001</v>
+      </c>
+      <c r="J51">
+        <v>11729.134</v>
+      </c>
+      <c r="K51">
+        <v>1073.8879999999999</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-849.86</v>
+      </c>
+      <c r="N51">
+        <v>3896.42</v>
+      </c>
+      <c r="O51">
+        <v>33299.385999999999</v>
+      </c>
+      <c r="P51">
+        <v>13471.115</v>
+      </c>
+      <c r="Q51">
+        <v>-269.63799999999998</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>9493.5869999999995</v>
+      </c>
+      <c r="U51">
+        <v>262.93099999999998</v>
+      </c>
+      <c r="V51">
+        <v>543.98900000000003</v>
+      </c>
+      <c r="W51">
+        <v>-147.90199999999999</v>
+      </c>
+      <c r="X51">
+        <v>-152.63900000000001</v>
+      </c>
+      <c r="Y51">
+        <v>33.975999999999999</v>
+      </c>
+      <c r="Z51">
+        <v>-44.298000000000002</v>
+      </c>
+      <c r="AA51">
+        <v>161.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>163.72300000000001</v>
+      </c>
+      <c r="D52">
+        <v>2738.2080000000001</v>
+      </c>
+      <c r="E52">
+        <v>998.37599999999998</v>
+      </c>
+      <c r="F52">
+        <v>852.197</v>
+      </c>
+      <c r="G52">
+        <v>3591.7220000000002</v>
+      </c>
+      <c r="H52">
+        <v>43262.285000000003</v>
+      </c>
+      <c r="I52">
+        <v>1170.405</v>
+      </c>
+      <c r="J52">
+        <v>12094.752</v>
+      </c>
+      <c r="K52">
+        <v>1090.124</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>3983.9540000000002</v>
+      </c>
+      <c r="O52">
+        <v>33707.256999999998</v>
+      </c>
+      <c r="P52">
+        <v>13747.011</v>
+      </c>
+      <c r="Q52">
+        <v>48.441000000000003</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>9555.0280000000002</v>
+      </c>
+      <c r="U52">
+        <v>311.37200000000001</v>
+      </c>
+      <c r="V52">
+        <v>571.91600000000005</v>
+      </c>
+      <c r="W52">
+        <v>-149.15199999999999</v>
+      </c>
+      <c r="X52">
+        <v>119.96</v>
+      </c>
+      <c r="Y52">
+        <v>33.402000000000001</v>
+      </c>
+      <c r="Z52">
+        <v>15.403</v>
+      </c>
+      <c r="AA52">
+        <v>163.72300000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>239.85</v>
+      </c>
+      <c r="D53">
+        <v>3351.9589999999998</v>
+      </c>
+      <c r="E53">
+        <v>1097.1389999999999</v>
+      </c>
+      <c r="F53">
+        <v>1237.0540000000001</v>
+      </c>
+      <c r="G53">
+        <v>3489.59</v>
+      </c>
+      <c r="H53">
+        <v>43324.125999999997</v>
+      </c>
+      <c r="I53">
+        <v>900.13099999999997</v>
+      </c>
+      <c r="J53">
+        <v>12275.492</v>
+      </c>
+      <c r="K53">
+        <v>1106.039</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>3439.0279999999998</v>
+      </c>
+      <c r="O53">
+        <v>33635.163999999997</v>
+      </c>
+      <c r="P53">
+        <v>13623.322</v>
+      </c>
+      <c r="Q53">
+        <v>53.96</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>9688.9619999999995</v>
+      </c>
+      <c r="U53">
+        <v>365.33199999999999</v>
+      </c>
+      <c r="V53">
+        <v>1083.5540000000001</v>
+      </c>
+      <c r="W53">
+        <v>-147.977</v>
+      </c>
+      <c r="X53">
+        <v>-276.28800000000001</v>
+      </c>
+      <c r="Y53">
+        <v>32.814</v>
+      </c>
+      <c r="Z53">
+        <v>-14.760999999999999</v>
+      </c>
+      <c r="AA53">
+        <v>239.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>146.929</v>
+      </c>
+      <c r="D54">
+        <v>2691.9059999999999</v>
+      </c>
+      <c r="E54">
+        <v>977.15800000000002</v>
+      </c>
+      <c r="F54">
+        <v>906.57399999999996</v>
+      </c>
+      <c r="G54">
+        <v>3929.6909999999998</v>
+      </c>
+      <c r="H54">
+        <v>43406.446000000004</v>
+      </c>
+      <c r="I54">
+        <v>1173.3130000000001</v>
+      </c>
+      <c r="J54">
+        <v>12139.148999999999</v>
+      </c>
+      <c r="K54">
+        <v>1046.8869999999999</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>4060.5720000000001</v>
+      </c>
+      <c r="O54">
+        <v>33469.22</v>
+      </c>
+      <c r="P54">
+        <v>13677.672</v>
+      </c>
+      <c r="Q54">
+        <v>373.79399999999998</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>13808</v>
+      </c>
+      <c r="T54">
+        <v>9937.2260000000006</v>
+      </c>
+      <c r="U54">
+        <v>739.12599999999998</v>
+      </c>
+      <c r="V54">
+        <v>989.76</v>
+      </c>
+      <c r="W54">
+        <v>-148.006</v>
+      </c>
+      <c r="X54">
+        <v>-71.856999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>32.218000000000004</v>
+      </c>
+      <c r="Z54">
+        <v>-39.298999999999999</v>
+      </c>
+      <c r="AA54">
+        <v>146.929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>401.17399999999998</v>
+      </c>
+      <c r="D55">
+        <v>3208.8429999999998</v>
+      </c>
+      <c r="E55">
+        <v>943.56899999999996</v>
+      </c>
+      <c r="F55">
+        <v>1295.133</v>
+      </c>
+      <c r="G55">
+        <v>4193.3159999999998</v>
+      </c>
+      <c r="H55">
+        <v>43876.769</v>
+      </c>
+      <c r="I55">
+        <v>1145.5909999999999</v>
+      </c>
+      <c r="J55">
+        <v>12198.641</v>
+      </c>
+      <c r="K55">
+        <v>1204.846</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-735.79399999999998</v>
+      </c>
+      <c r="N55">
+        <v>3917.4609999999998</v>
+      </c>
+      <c r="O55">
+        <v>33623.580999999998</v>
+      </c>
+      <c r="P55">
+        <v>13860.129000000001</v>
+      </c>
+      <c r="Q55">
+        <v>169.357</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>10253.188</v>
+      </c>
+      <c r="U55">
+        <v>908.48299999999995</v>
+      </c>
+      <c r="V55">
+        <v>767.15700000000004</v>
+      </c>
+      <c r="W55">
+        <v>-148.27500000000001</v>
+      </c>
+      <c r="X55">
+        <v>57.798999999999999</v>
+      </c>
+      <c r="Y55">
+        <v>31.608000000000001</v>
+      </c>
+      <c r="Z55">
+        <v>18.093</v>
+      </c>
+      <c r="AA55">
+        <v>401.17399999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>189.38300000000001</v>
+      </c>
+      <c r="D56">
+        <v>2996.65</v>
+      </c>
+      <c r="E56">
+        <v>1041.8019999999999</v>
+      </c>
+      <c r="F56">
+        <v>993.23199999999997</v>
+      </c>
+      <c r="G56">
+        <v>4245.1329999999998</v>
+      </c>
+      <c r="H56">
+        <v>44150.747000000003</v>
+      </c>
+      <c r="I56">
+        <v>1159.7260000000001</v>
+      </c>
+      <c r="J56">
+        <v>11936.105</v>
+      </c>
+      <c r="K56">
+        <v>1039.3489999999999</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>4128.0690000000004</v>
+      </c>
+      <c r="O56">
+        <v>33783.519</v>
+      </c>
+      <c r="P56">
+        <v>13691.521000000001</v>
+      </c>
+      <c r="Q56">
+        <v>-258.41500000000002</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>10367.227999999999</v>
+      </c>
+      <c r="U56">
+        <v>650.06799999999998</v>
+      </c>
+      <c r="V56">
+        <v>761.40599999999995</v>
+      </c>
+      <c r="W56">
+        <v>-148.953</v>
+      </c>
+      <c r="X56">
+        <v>-284.76</v>
+      </c>
+      <c r="Y56">
+        <v>30.988</v>
+      </c>
+      <c r="Z56">
+        <v>-158.86500000000001</v>
+      </c>
+      <c r="AA56">
+        <v>189.38300000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>230.03700000000001</v>
+      </c>
+      <c r="D57">
+        <v>3458.11</v>
+      </c>
+      <c r="E57">
+        <v>1094.0830000000001</v>
+      </c>
+      <c r="F57">
+        <v>1220.5129999999999</v>
+      </c>
+      <c r="G57">
+        <v>4264.5389999999998</v>
+      </c>
+      <c r="H57">
+        <v>44541.648999999998</v>
+      </c>
+      <c r="I57">
+        <v>1104.105</v>
+      </c>
+      <c r="J57">
+        <v>11634.662</v>
+      </c>
+      <c r="K57">
+        <v>891.44500000000005</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4453.567</v>
+      </c>
+      <c r="O57">
+        <v>34087.853999999999</v>
+      </c>
+      <c r="P57">
+        <v>13672.967000000001</v>
+      </c>
+      <c r="Q57">
+        <v>418.44099999999997</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>10453.795</v>
+      </c>
+      <c r="U57">
+        <v>1068.509</v>
+      </c>
+      <c r="V57">
+        <v>1362.9259999999999</v>
+      </c>
+      <c r="W57">
+        <v>-149.08000000000001</v>
+      </c>
+      <c r="X57">
+        <v>-166.70400000000001</v>
+      </c>
+      <c r="Y57">
+        <v>30.353999999999999</v>
+      </c>
+      <c r="Z57">
+        <v>177.86199999999999</v>
+      </c>
+      <c r="AA57">
+        <v>230.03700000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>120.127</v>
+      </c>
+      <c r="D58">
+        <v>2831.3180000000002</v>
+      </c>
+      <c r="E58">
+        <v>882.91300000000001</v>
+      </c>
+      <c r="F58">
+        <v>887.95500000000004</v>
+      </c>
+      <c r="G58">
+        <v>4389.6329999999998</v>
+      </c>
+      <c r="H58">
+        <v>46414.455000000002</v>
+      </c>
+      <c r="I58">
+        <v>1166.431</v>
+      </c>
+      <c r="J58">
+        <v>12386.71</v>
+      </c>
+      <c r="K58">
+        <v>598.40700000000004</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3848.8910000000001</v>
+      </c>
+      <c r="O58">
+        <v>36101.97</v>
+      </c>
+      <c r="P58">
+        <v>13916.71</v>
+      </c>
+      <c r="Q58">
+        <v>353.517</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>13393</v>
+      </c>
+      <c r="T58">
+        <v>10312.485000000001</v>
+      </c>
+      <c r="U58">
+        <v>1422.0260000000001</v>
+      </c>
+      <c r="V58">
+        <v>998.072</v>
+      </c>
+      <c r="W58">
+        <v>-149.809</v>
+      </c>
+      <c r="X58">
+        <v>141.49199999999999</v>
+      </c>
+      <c r="Y58">
+        <v>29.71</v>
+      </c>
+      <c r="Z58">
+        <v>9.8930000000000007</v>
+      </c>
+      <c r="AA58">
+        <v>120.127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>298.05</v>
+      </c>
+      <c r="D59">
+        <v>2920.09</v>
+      </c>
+      <c r="E59">
+        <v>893.87699999999995</v>
+      </c>
+      <c r="F59">
+        <v>1112.634</v>
+      </c>
+      <c r="G59">
+        <v>4139.9849999999997</v>
+      </c>
+      <c r="H59">
+        <v>46377.533000000003</v>
+      </c>
+      <c r="I59">
+        <v>941.596</v>
+      </c>
+      <c r="J59">
+        <v>12307.54</v>
+      </c>
+      <c r="K59">
+        <v>808.41899999999998</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-685.25800000000004</v>
+      </c>
+      <c r="N59">
+        <v>3765.4250000000002</v>
+      </c>
+      <c r="O59">
+        <v>35938.794000000002</v>
+      </c>
+      <c r="P59">
+        <v>14044.444</v>
+      </c>
+      <c r="Q59">
+        <v>-241.48</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>10438.739</v>
+      </c>
+      <c r="U59">
+        <v>1180.546</v>
+      </c>
+      <c r="V59">
+        <v>610.95799999999997</v>
+      </c>
+      <c r="W59">
+        <v>-149.25700000000001</v>
+      </c>
+      <c r="X59">
+        <v>-152.559</v>
+      </c>
+      <c r="Y59">
+        <v>29.050999999999998</v>
+      </c>
+      <c r="Z59">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AA59">
+        <v>298.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>148.84200000000001</v>
+      </c>
+      <c r="D60">
+        <v>2713.2310000000002</v>
+      </c>
+      <c r="E60">
+        <v>998.43100000000004</v>
+      </c>
+      <c r="F60">
+        <v>945.59900000000005</v>
+      </c>
+      <c r="G60">
+        <v>4085.05</v>
+      </c>
+      <c r="H60">
+        <v>46265.650999999998</v>
+      </c>
+      <c r="I60">
+        <v>1013.026</v>
+      </c>
+      <c r="J60">
+        <v>12092.041999999999</v>
+      </c>
+      <c r="K60">
+        <v>939.98500000000001</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3998.3710000000001</v>
+      </c>
+      <c r="O60">
+        <v>35802.695</v>
+      </c>
+      <c r="P60">
+        <v>13857.791999999999</v>
+      </c>
+      <c r="Q60">
+        <v>-270.17599999999999</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>10462.956</v>
+      </c>
+      <c r="U60">
+        <v>910.37</v>
+      </c>
+      <c r="V60">
+        <v>727.40300000000002</v>
+      </c>
+      <c r="W60">
+        <v>-149.00200000000001</v>
+      </c>
+      <c r="X60">
+        <v>-327.36700000000002</v>
+      </c>
+      <c r="Y60">
+        <v>28.382000000000001</v>
+      </c>
+      <c r="Z60">
+        <v>-54.3</v>
+      </c>
+      <c r="AA60">
+        <v>148.84299999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-723.02700000000004</v>
+      </c>
+      <c r="D61">
+        <v>3371.4059999999999</v>
+      </c>
+      <c r="E61">
+        <v>1142.155</v>
+      </c>
+      <c r="F61">
+        <v>1261.211</v>
+      </c>
+      <c r="G61">
+        <v>4117.3459999999995</v>
+      </c>
+      <c r="H61">
+        <v>45041.605000000003</v>
+      </c>
+      <c r="I61">
+        <v>1042.173</v>
+      </c>
+      <c r="J61">
+        <v>13052.547</v>
+      </c>
+      <c r="K61">
+        <v>782.02200000000005</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3453.826</v>
+      </c>
+      <c r="O61">
+        <v>35673.72</v>
+      </c>
+      <c r="P61">
+        <v>14143.637000000001</v>
+      </c>
+      <c r="Q61">
+        <v>130.22800000000001</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>9367.8850000000002</v>
+      </c>
+      <c r="U61">
+        <v>1040.598</v>
+      </c>
+      <c r="V61">
+        <v>1011.284</v>
+      </c>
+      <c r="W61">
+        <v>-149.00899999999999</v>
+      </c>
+      <c r="X61">
+        <v>-64.772999999999996</v>
+      </c>
+      <c r="Y61">
+        <v>27.696999999999999</v>
+      </c>
+      <c r="Z61">
+        <v>38.698999999999998</v>
+      </c>
+      <c r="AA61">
+        <v>-723.02700000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>99.572999999999993</v>
+      </c>
+      <c r="D62">
+        <v>2508.5230000000001</v>
+      </c>
+      <c r="E62">
+        <v>890.53599999999994</v>
+      </c>
+      <c r="F62">
+        <v>749.93399999999997</v>
+      </c>
+      <c r="G62">
+        <v>4067.4119999999998</v>
+      </c>
+      <c r="H62">
+        <v>44647.680999999997</v>
+      </c>
+      <c r="I62">
+        <v>1071.798</v>
+      </c>
+      <c r="J62">
+        <v>13111.556</v>
+      </c>
+      <c r="K62">
+        <v>494.34800000000001</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3089.9580000000001</v>
+      </c>
+      <c r="O62">
+        <v>35072.705000000002</v>
+      </c>
+      <c r="P62">
+        <v>13849.987999999999</v>
+      </c>
+      <c r="Q62">
+        <v>310.363</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>13579</v>
+      </c>
+      <c r="T62">
+        <v>9574.9760000000006</v>
+      </c>
+      <c r="U62">
+        <v>1350.961</v>
+      </c>
+      <c r="V62">
+        <v>941.53899999999999</v>
+      </c>
+      <c r="W62">
+        <v>-151.62899999999999</v>
+      </c>
+      <c r="X62">
+        <v>-208.768</v>
+      </c>
+      <c r="Y62">
+        <v>27.001000000000001</v>
+      </c>
+      <c r="Z62">
+        <v>15.894</v>
+      </c>
+      <c r="AA62">
+        <v>99.572999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>229.96600000000001</v>
+      </c>
+      <c r="D63">
+        <v>2609.8519999999999</v>
+      </c>
+      <c r="E63">
+        <v>822.65300000000002</v>
+      </c>
+      <c r="F63">
+        <v>1059.4169999999999</v>
+      </c>
+      <c r="G63">
+        <v>4001.1950000000002</v>
+      </c>
+      <c r="H63">
+        <v>45933.881999999998</v>
+      </c>
+      <c r="I63">
+        <v>888.34900000000005</v>
+      </c>
+      <c r="J63">
+        <v>13500.14</v>
+      </c>
+      <c r="K63">
+        <v>766.07899999999995</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-1903.67</v>
+      </c>
+      <c r="N63">
+        <v>3839.348</v>
+      </c>
+      <c r="O63">
+        <v>36254.75</v>
+      </c>
+      <c r="P63">
+        <v>15092.003000000001</v>
+      </c>
+      <c r="Q63">
+        <v>-259.31</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>9679.1319999999996</v>
+      </c>
+      <c r="U63">
+        <v>1091.6510000000001</v>
+      </c>
+      <c r="V63">
+        <v>532.82100000000003</v>
+      </c>
+      <c r="W63">
+        <v>-151.839</v>
+      </c>
+      <c r="X63">
+        <v>1085.896</v>
+      </c>
+      <c r="Y63">
+        <v>26.29</v>
+      </c>
+      <c r="Z63">
+        <v>-196.50899999999999</v>
+      </c>
+      <c r="AA63">
+        <v>229.96600000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>567.31399999999996</v>
+      </c>
+      <c r="D64">
+        <v>2462.5619999999999</v>
+      </c>
+      <c r="E64">
+        <v>932.49</v>
+      </c>
+      <c r="F64">
+        <v>990.12199999999996</v>
+      </c>
+      <c r="G64">
+        <v>3851.9279999999999</v>
+      </c>
+      <c r="H64">
+        <v>45877.042000000001</v>
+      </c>
+      <c r="I64">
+        <v>967.08</v>
+      </c>
+      <c r="J64">
+        <v>13112.072</v>
+      </c>
+      <c r="K64">
+        <v>1024.8879999999999</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>4021.8429999999998</v>
+      </c>
+      <c r="O64">
+        <v>35801.07</v>
+      </c>
+      <c r="P64">
+        <v>14837.074000000001</v>
+      </c>
+      <c r="Q64">
+        <v>-95.552000000000007</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>10075.972</v>
+      </c>
+      <c r="U64">
+        <v>996.09900000000005</v>
+      </c>
+      <c r="V64">
+        <v>719.25900000000001</v>
+      </c>
+      <c r="W64">
+        <v>-152.00399999999999</v>
+      </c>
+      <c r="X64">
+        <v>-426.6</v>
+      </c>
+      <c r="Y64">
+        <v>25.567</v>
+      </c>
+      <c r="Z64">
+        <v>196.566</v>
+      </c>
+      <c r="AA64">
+        <v>567.31399999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>388.16899999999998</v>
+      </c>
+      <c r="D65">
+        <v>3124.703</v>
+      </c>
+      <c r="E65">
+        <v>1153.1790000000001</v>
+      </c>
+      <c r="F65">
+        <v>1384.7550000000001</v>
+      </c>
+      <c r="G65">
+        <v>4340.0349999999999</v>
+      </c>
+      <c r="H65">
+        <v>47738.180999999997</v>
+      </c>
+      <c r="I65">
+        <v>1063.1389999999999</v>
+      </c>
+      <c r="J65">
+        <v>13861.703</v>
+      </c>
+      <c r="K65">
+        <v>433.363</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>3451.7469999999998</v>
+      </c>
+      <c r="O65">
+        <v>37435.934000000001</v>
+      </c>
+      <c r="P65">
+        <v>15072.966</v>
+      </c>
+      <c r="Q65">
+        <v>311.33499999999998</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>10302.246999999999</v>
+      </c>
+      <c r="U65">
+        <v>1307.434</v>
+      </c>
+      <c r="V65">
+        <v>1000.3150000000001</v>
+      </c>
+      <c r="W65">
+        <v>-152.15</v>
+      </c>
+      <c r="X65">
+        <v>27.274000000000001</v>
+      </c>
+      <c r="Y65">
+        <v>24.957000000000001</v>
+      </c>
+      <c r="Z65">
+        <v>12.317</v>
+      </c>
+      <c r="AA65">
+        <v>388.17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-1769.067</v>
+      </c>
+      <c r="D66">
+        <v>2648.527</v>
+      </c>
+      <c r="E66">
+        <v>1011.748</v>
+      </c>
+      <c r="F66">
+        <v>899.53599999999994</v>
+      </c>
+      <c r="G66">
+        <v>3684.268</v>
+      </c>
+      <c r="H66">
+        <v>45904.434000000001</v>
+      </c>
+      <c r="I66">
+        <v>1285.577</v>
+      </c>
+      <c r="J66">
+        <v>14467.655000000001</v>
+      </c>
+      <c r="K66">
+        <v>415.01100000000002</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>3200.096</v>
+      </c>
+      <c r="O66">
+        <v>37619.440000000002</v>
+      </c>
+      <c r="P66">
+        <v>15274.571</v>
+      </c>
+      <c r="Q66">
+        <v>-119.59</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>13513</v>
+      </c>
+      <c r="T66">
+        <v>8284.9940000000006</v>
+      </c>
+      <c r="U66">
+        <v>1187.8440000000001</v>
+      </c>
+      <c r="V66">
+        <v>746.30399999999997</v>
+      </c>
+      <c r="W66">
+        <v>-155.84200000000001</v>
+      </c>
+      <c r="X66">
+        <v>1.6619999999999999</v>
+      </c>
+      <c r="Y66">
+        <v>24.582000000000001</v>
+      </c>
+      <c r="Z66">
+        <v>-3.319</v>
+      </c>
+      <c r="AA66">
+        <v>-1769.067</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>82.605000000000004</v>
+      </c>
+      <c r="D67">
+        <v>2588.4580000000001</v>
+      </c>
+      <c r="E67">
+        <v>838.92</v>
+      </c>
+      <c r="F67">
+        <v>923.70399999999995</v>
+      </c>
+      <c r="G67">
+        <v>3397.491</v>
+      </c>
+      <c r="H67">
+        <v>45318.205999999998</v>
+      </c>
+      <c r="I67">
+        <v>1149.498</v>
+      </c>
+      <c r="J67">
+        <v>13927.204</v>
+      </c>
+      <c r="K67">
+        <v>1323.39</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-811.69</v>
+      </c>
+      <c r="N67">
+        <v>3879.0430000000001</v>
+      </c>
+      <c r="O67">
+        <v>37057.832000000002</v>
+      </c>
+      <c r="P67">
+        <v>15610.597</v>
+      </c>
+      <c r="Q67">
+        <v>-104.782</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>8260.3739999999998</v>
+      </c>
+      <c r="U67">
+        <v>1083.0619999999999</v>
+      </c>
+      <c r="V67">
+        <v>529.39300000000003</v>
+      </c>
+      <c r="W67">
+        <v>-156.07300000000001</v>
+      </c>
+      <c r="X67">
+        <v>177.625</v>
+      </c>
+      <c r="Y67">
+        <v>23.573</v>
+      </c>
+      <c r="Z67">
+        <v>-10.377000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>82.605000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>409.923</v>
+      </c>
+      <c r="D68">
+        <v>2618.5500000000002</v>
+      </c>
+      <c r="E68">
+        <v>982.15099999999995</v>
+      </c>
+      <c r="F68">
+        <v>972.851</v>
+      </c>
+      <c r="G68">
+        <v>3599.3440000000001</v>
+      </c>
+      <c r="H68">
+        <v>46007.036999999997</v>
+      </c>
+      <c r="I68">
+        <v>1165.6990000000001</v>
+      </c>
+      <c r="J68">
+        <v>14307.759</v>
+      </c>
+      <c r="K68">
+        <v>1248.9690000000001</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>4240.53</v>
+      </c>
+      <c r="O68">
+        <v>37432.995999999999</v>
+      </c>
+      <c r="P68">
+        <v>16285.203</v>
+      </c>
+      <c r="Q68">
+        <v>-148.56700000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>8574.0409999999993</v>
+      </c>
+      <c r="U68">
+        <v>934.495</v>
+      </c>
+      <c r="V68">
+        <v>290.29000000000002</v>
+      </c>
+      <c r="W68">
+        <v>-156.136</v>
+      </c>
+      <c r="X68">
+        <v>519.54700000000003</v>
+      </c>
+      <c r="Y68">
+        <v>23.178999999999998</v>
+      </c>
+      <c r="Z68">
+        <v>12.082000000000001</v>
+      </c>
+      <c r="AA68">
+        <v>409.92200000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>398.19799999999998</v>
+      </c>
+      <c r="D69">
+        <v>3243.6280000000002</v>
+      </c>
+      <c r="E69">
+        <v>1161.0139999999999</v>
+      </c>
+      <c r="F69">
+        <v>1404.2639999999999</v>
+      </c>
+      <c r="G69">
+        <v>3471.2310000000002</v>
+      </c>
+      <c r="H69">
+        <v>46398.442000000003</v>
+      </c>
+      <c r="I69">
+        <v>1105.038</v>
+      </c>
+      <c r="J69">
+        <v>13977.522000000001</v>
+      </c>
+      <c r="K69">
+        <v>1352.6880000000001</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>4460.8710000000001</v>
+      </c>
+      <c r="O69">
+        <v>37505.019999999997</v>
+      </c>
+      <c r="P69">
+        <v>16224.243</v>
+      </c>
+      <c r="Q69">
+        <v>-388.20400000000001</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>8893.4220000000005</v>
+      </c>
+      <c r="U69">
+        <v>546.29100000000005</v>
+      </c>
+      <c r="V69">
+        <v>893.06799999999998</v>
+      </c>
+      <c r="W69">
+        <v>-156.18700000000001</v>
+      </c>
+      <c r="X69">
+        <v>-223.75399999999999</v>
+      </c>
+      <c r="Y69">
+        <v>22.783000000000001</v>
+      </c>
+      <c r="Z69">
+        <v>-113.922</v>
+      </c>
+      <c r="AA69">
+        <v>398.19799999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-479.11399999999998</v>
+      </c>
+      <c r="D70">
+        <v>2623.8449999999998</v>
+      </c>
+      <c r="E70">
+        <v>1043.5730000000001</v>
+      </c>
+      <c r="F70">
+        <v>998.178</v>
+      </c>
+      <c r="G70">
+        <v>3285.3310000000001</v>
+      </c>
+      <c r="H70">
+        <v>46707.148999999998</v>
+      </c>
+      <c r="I70">
+        <v>1452.2159999999999</v>
+      </c>
+      <c r="J70">
+        <v>14315.259</v>
+      </c>
+      <c r="K70">
+        <v>1578.308</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>5036.2070000000003</v>
+      </c>
+      <c r="O70">
+        <v>38516.830999999998</v>
+      </c>
+      <c r="P70">
+        <v>16677.091</v>
+      </c>
+      <c r="Q70">
+        <v>234.982</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>13504</v>
+      </c>
+      <c r="T70">
+        <v>8190.3180000000002</v>
+      </c>
+      <c r="U70">
+        <v>781.27300000000002</v>
+      </c>
+      <c r="V70">
+        <v>910.74900000000002</v>
+      </c>
+      <c r="W70">
+        <v>-160.489</v>
+      </c>
+      <c r="X70">
+        <v>337.56</v>
+      </c>
+      <c r="Y70">
+        <v>22.015000000000001</v>
+      </c>
+      <c r="Z70">
+        <v>113.295</v>
+      </c>
+      <c r="AA70">
+        <v>-479.11399999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>132.761</v>
+      </c>
+      <c r="D71">
+        <v>2723.8809999999999</v>
+      </c>
+      <c r="E71">
+        <v>918.76199999999994</v>
+      </c>
+      <c r="F71">
+        <v>1058.2170000000001</v>
+      </c>
+      <c r="G71">
+        <v>3655.7339999999999</v>
+      </c>
+      <c r="H71">
+        <v>47281.525000000001</v>
+      </c>
+      <c r="I71">
+        <v>1260.7180000000001</v>
+      </c>
+      <c r="J71">
+        <v>15591.628000000001</v>
+      </c>
+      <c r="K71">
+        <v>805.13099999999997</v>
+      </c>
+      <c r="L71">
+        <v>-773.17700000000002</v>
+      </c>
+      <c r="M71">
+        <v>-734</v>
+      </c>
+      <c r="N71">
+        <v>5232.6719999999996</v>
+      </c>
+      <c r="O71">
+        <v>39108.783000000003</v>
+      </c>
+      <c r="P71">
+        <v>17679.817999999999</v>
+      </c>
+      <c r="Q71">
+        <v>424.32299999999998</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>8172.7420000000002</v>
+      </c>
+      <c r="U71">
+        <v>1205.596</v>
+      </c>
+      <c r="V71">
+        <v>557.39300000000003</v>
+      </c>
+      <c r="W71">
+        <v>-160.887</v>
+      </c>
+      <c r="X71">
+        <v>841.36800000000005</v>
+      </c>
+      <c r="Y71">
+        <v>21.632000000000001</v>
+      </c>
+      <c r="Z71">
+        <v>-0.40600000000000003</v>
+      </c>
+      <c r="AA71">
+        <v>132.761</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>245.42</v>
+      </c>
+      <c r="D72">
+        <v>2668.77</v>
+      </c>
+      <c r="E72">
+        <v>1108.3820000000001</v>
+      </c>
+      <c r="F72">
+        <v>910.471</v>
+      </c>
+      <c r="G72">
+        <v>3534.45</v>
+      </c>
+      <c r="H72">
+        <v>47622.648999999998</v>
+      </c>
+      <c r="I72">
+        <v>1459.432</v>
+      </c>
+      <c r="J72">
+        <v>14857.686</v>
+      </c>
+      <c r="K72">
+        <v>1984.1030000000001</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>6232.0730000000003</v>
+      </c>
+      <c r="O72">
+        <v>39402.417000000001</v>
+      </c>
+      <c r="P72">
+        <v>17881.401999999998</v>
+      </c>
+      <c r="Q72">
+        <v>-392.80900000000003</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>8220.232</v>
+      </c>
+      <c r="U72">
+        <v>812.78700000000003</v>
+      </c>
+      <c r="V72">
+        <v>522.53</v>
+      </c>
+      <c r="W72">
+        <v>-160.934</v>
+      </c>
+      <c r="X72">
+        <v>39.914999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>21.263000000000002</v>
+      </c>
+      <c r="Z72">
+        <v>-10.363</v>
+      </c>
+      <c r="AA72">
+        <v>245.42099999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>536.37900000000002</v>
+      </c>
+      <c r="D73">
+        <v>3104.319</v>
+      </c>
+      <c r="E73">
+        <v>1200.431</v>
+      </c>
+      <c r="F73">
+        <v>1043.72</v>
+      </c>
+      <c r="G73">
+        <v>3694.5459999999998</v>
+      </c>
+      <c r="H73">
+        <v>48471.171999999999</v>
+      </c>
+      <c r="I73">
+        <v>1392.114</v>
+      </c>
+      <c r="J73">
+        <v>15780.826999999999</v>
+      </c>
+      <c r="K73">
+        <v>1946.6769999999999</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>5750.5630000000001</v>
+      </c>
+      <c r="O73">
+        <v>39860.688999999998</v>
+      </c>
+      <c r="P73">
+        <v>18484.866000000002</v>
+      </c>
+      <c r="Q73">
+        <v>175.19399999999999</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>8610.4830000000002</v>
+      </c>
+      <c r="U73">
+        <v>987.98099999999999</v>
+      </c>
+      <c r="V73">
+        <v>779.58100000000002</v>
+      </c>
+      <c r="W73">
+        <v>-161.04400000000001</v>
+      </c>
+      <c r="X73">
+        <v>466.40199999999999</v>
+      </c>
+      <c r="Y73">
+        <v>20.887</v>
+      </c>
+      <c r="Z73">
+        <v>-25.370999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>536.37900000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-65.899000000000001</v>
+      </c>
+      <c r="D74">
+        <v>2512.482</v>
+      </c>
+      <c r="E74">
+        <v>946.68299999999999</v>
+      </c>
+      <c r="F74">
+        <v>832.52700000000004</v>
+      </c>
+      <c r="G74">
+        <v>2958.0639999999999</v>
+      </c>
+      <c r="H74">
+        <v>48275.065999999999</v>
+      </c>
+      <c r="I74">
+        <v>1496.058</v>
+      </c>
+      <c r="J74">
+        <v>15518.303</v>
+      </c>
+      <c r="K74">
+        <v>1942.3389999999999</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>5443.5439999999999</v>
+      </c>
+      <c r="O74">
+        <v>39211.358999999997</v>
+      </c>
+      <c r="P74">
+        <v>18132.648000000001</v>
+      </c>
+      <c r="Q74">
+        <v>-507.00599999999997</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>13688</v>
+      </c>
+      <c r="T74">
+        <v>9063.7070000000003</v>
+      </c>
+      <c r="U74">
+        <v>480.97500000000002</v>
+      </c>
+      <c r="V74">
+        <v>525.74300000000005</v>
+      </c>
+      <c r="W74">
+        <v>-164.839</v>
+      </c>
+      <c r="X74">
+        <v>72.757000000000005</v>
+      </c>
+      <c r="Y74">
+        <v>19.11</v>
+      </c>
+      <c r="Z74">
+        <v>-18.36</v>
+      </c>
+      <c r="AA74">
+        <v>-65.899000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>254.53700000000001</v>
+      </c>
+      <c r="D75">
+        <v>2609.5839999999998</v>
+      </c>
+      <c r="E75">
+        <v>916.41600000000005</v>
+      </c>
+      <c r="F75">
+        <v>958.255</v>
+      </c>
+      <c r="G75">
+        <v>3407.7759999999998</v>
+      </c>
+      <c r="H75">
+        <v>49605.381000000001</v>
+      </c>
+      <c r="I75">
+        <v>1406.327</v>
+      </c>
+      <c r="J75">
+        <v>17167.885999999999</v>
+      </c>
+      <c r="K75">
+        <v>1942.3219999999999</v>
+      </c>
+      <c r="L75">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="M75">
+        <v>-2298.855</v>
+      </c>
+      <c r="N75">
+        <v>4861.0829999999996</v>
+      </c>
+      <c r="O75">
+        <v>40415.587</v>
+      </c>
+      <c r="P75">
+        <v>19551.45</v>
+      </c>
+      <c r="Q75">
+        <v>502.52100000000002</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>9189.7939999999999</v>
+      </c>
+      <c r="U75">
+        <v>983.49599999999998</v>
+      </c>
+      <c r="V75">
+        <v>501.18900000000002</v>
+      </c>
+      <c r="W75">
+        <v>-172.59100000000001</v>
+      </c>
+      <c r="X75">
+        <v>952.29</v>
+      </c>
+      <c r="Y75">
+        <v>226.52099999999999</v>
+      </c>
+      <c r="Z75">
+        <v>39.045000000000002</v>
+      </c>
+      <c r="AA75">
+        <v>254.53700000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>236.42400000000001</v>
+      </c>
+      <c r="D76">
+        <v>2666.2089999999998</v>
+      </c>
+      <c r="E76">
+        <v>1104.1410000000001</v>
+      </c>
+      <c r="F76">
+        <v>960.19299999999998</v>
+      </c>
+      <c r="G76">
+        <v>3283.5079999999998</v>
+      </c>
+      <c r="H76">
+        <v>50565.745000000003</v>
+      </c>
+      <c r="I76">
+        <v>1412.607</v>
+      </c>
+      <c r="J76">
+        <v>17204.288</v>
+      </c>
+      <c r="K76">
+        <v>1635.462</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4522.6080000000002</v>
+      </c>
+      <c r="O76">
+        <v>40548.815000000002</v>
+      </c>
+      <c r="P76">
+        <v>19288.433000000001</v>
+      </c>
+      <c r="Q76">
+        <v>-347.58699999999999</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>10016.93</v>
+      </c>
+      <c r="U76">
+        <v>635.90899999999999</v>
+      </c>
+      <c r="V76">
+        <v>551.90099999999995</v>
+      </c>
+      <c r="W76">
+        <v>-172.86099999999999</v>
+      </c>
+      <c r="X76">
+        <v>174.55500000000001</v>
+      </c>
+      <c r="Y76">
+        <v>235.61099999999999</v>
+      </c>
+      <c r="Z76">
+        <v>12.028</v>
+      </c>
+      <c r="AA76">
+        <v>236.42400000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>365.24</v>
+      </c>
+      <c r="D77">
+        <v>3140.5749999999998</v>
+      </c>
+      <c r="E77">
+        <v>1205.8240000000001</v>
+      </c>
+      <c r="F77">
+        <v>1369.557</v>
+      </c>
+      <c r="G77">
+        <v>3661.672</v>
+      </c>
+      <c r="H77">
+        <v>50506.267999999996</v>
+      </c>
+      <c r="I77">
+        <v>1328.6310000000001</v>
+      </c>
+      <c r="J77">
+        <v>16938.013999999999</v>
+      </c>
+      <c r="K77">
+        <v>1917.788</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>5103.0460000000003</v>
+      </c>
+      <c r="O77">
+        <v>40216.796000000002</v>
+      </c>
+      <c r="P77">
+        <v>19677.3</v>
+      </c>
+      <c r="Q77">
+        <v>319.92200000000003</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>10289.472</v>
+      </c>
+      <c r="U77">
+        <v>955.83100000000002</v>
+      </c>
+      <c r="V77">
+        <v>1064.857</v>
+      </c>
+      <c r="W77">
+        <v>-180.95599999999999</v>
+      </c>
+      <c r="X77">
+        <v>254.99</v>
+      </c>
+      <c r="Y77">
+        <v>237.65600000000001</v>
+      </c>
+      <c r="Z77">
+        <v>-20.702999999999999</v>
+      </c>
+      <c r="AA77">
+        <v>365.24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>385.02499999999998</v>
+      </c>
+      <c r="D78">
+        <v>2462.306</v>
+      </c>
+      <c r="E78">
+        <v>988.72199999999998</v>
+      </c>
+      <c r="F78">
+        <v>981.86300000000006</v>
+      </c>
+      <c r="G78">
+        <v>3045.9920000000002</v>
+      </c>
+      <c r="H78">
+        <v>51723.911999999997</v>
+      </c>
+      <c r="I78">
+        <v>1499.8610000000001</v>
+      </c>
+      <c r="J78">
+        <v>17044.296999999999</v>
+      </c>
+      <c r="K78">
+        <v>1946.7270000000001</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>5620.4629999999997</v>
+      </c>
+      <c r="O78">
+        <v>41245.826999999997</v>
+      </c>
+      <c r="P78">
+        <v>20119.207999999999</v>
+      </c>
+      <c r="Q78">
+        <v>-530.10900000000004</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>13635</v>
+      </c>
+      <c r="T78">
+        <v>10478.084999999999</v>
+      </c>
+      <c r="U78">
+        <v>425.72199999999998</v>
+      </c>
+      <c r="V78">
+        <v>698.68</v>
+      </c>
+      <c r="W78">
+        <v>-185.16499999999999</v>
+      </c>
+      <c r="X78">
+        <v>256.52699999999999</v>
+      </c>
+      <c r="Y78">
+        <v>269.08100000000002</v>
+      </c>
+      <c r="Z78">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+      <c r="AA78">
+        <v>385.02499999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>118.714</v>
+      </c>
+      <c r="D79">
+        <v>2427.1790000000001</v>
+      </c>
+      <c r="E79">
+        <v>963.70500000000004</v>
+      </c>
+      <c r="F79">
+        <v>1060.8599999999999</v>
+      </c>
+      <c r="G79">
+        <v>3973.951</v>
+      </c>
+      <c r="H79">
+        <v>52555.029000000002</v>
+      </c>
+      <c r="I79">
+        <v>1502.3920000000001</v>
+      </c>
+      <c r="J79">
+        <v>18228.527999999998</v>
+      </c>
+      <c r="K79">
+        <v>1941.816</v>
+      </c>
+      <c r="L79">
+        <v>-4.9109999999999996</v>
+      </c>
+      <c r="M79">
+        <v>-1614.578</v>
+      </c>
+      <c r="N79">
+        <v>6017.9390000000003</v>
+      </c>
+      <c r="O79">
+        <v>42076.677000000003</v>
+      </c>
+      <c r="P79">
+        <v>21400.359</v>
+      </c>
+      <c r="Q79">
+        <v>1038.1110000000001</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>10478.352000000001</v>
+      </c>
+      <c r="U79">
+        <v>1463.8330000000001</v>
+      </c>
+      <c r="V79">
+        <v>659.06</v>
+      </c>
+      <c r="W79">
+        <v>-185.76300000000001</v>
+      </c>
+      <c r="X79">
+        <v>1424.538</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>2.2650000000000001</v>
+      </c>
+      <c r="AA79">
+        <v>118.714</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>360.53300000000002</v>
+      </c>
+      <c r="D80">
+        <v>2412.788</v>
+      </c>
+      <c r="E80">
+        <v>1057.7170000000001</v>
+      </c>
+      <c r="F80">
+        <v>1078.6669999999999</v>
+      </c>
+      <c r="G80">
+        <v>3546.9960000000001</v>
+      </c>
+      <c r="H80">
+        <v>53365.302000000003</v>
+      </c>
+      <c r="I80">
+        <v>1509.355</v>
+      </c>
+      <c r="J80">
+        <v>18278.358</v>
+      </c>
+      <c r="K80">
+        <v>1946.2190000000001</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>6115.9009999999998</v>
+      </c>
+      <c r="O80">
+        <v>42684.904000000002</v>
+      </c>
+      <c r="P80">
+        <v>21429.592000000001</v>
+      </c>
+      <c r="Q80">
+        <v>-528.36500000000001</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>10680.397999999999</v>
+      </c>
+      <c r="U80">
+        <v>935.46799999999996</v>
+      </c>
+      <c r="V80">
+        <v>789.24699999999996</v>
+      </c>
+      <c r="W80">
+        <v>-186.15100000000001</v>
+      </c>
+      <c r="X80">
+        <v>-164.90600000000001</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AA80">
+        <v>360.53300000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>521.11900000000003</v>
+      </c>
+      <c r="D81">
+        <v>2903.5680000000002</v>
+      </c>
+      <c r="E81">
+        <v>1224.7460000000001</v>
+      </c>
+      <c r="F81">
+        <v>1421.2550000000001</v>
+      </c>
+      <c r="G81">
+        <v>4062.8049999999998</v>
+      </c>
+      <c r="H81">
+        <v>56070.250999999997</v>
+      </c>
+      <c r="I81">
+        <v>2872.4470000000001</v>
+      </c>
+      <c r="J81">
+        <v>19612.664000000001</v>
+      </c>
+      <c r="K81">
+        <v>1398.2049999999999</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>6875.5259999999998</v>
+      </c>
+      <c r="O81">
+        <v>45044.002</v>
+      </c>
+      <c r="P81">
+        <v>22060.883999999998</v>
+      </c>
+      <c r="Q81">
+        <v>304.19600000000003</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>11026.249</v>
+      </c>
+      <c r="U81">
+        <v>1239.664</v>
+      </c>
+      <c r="V81">
+        <v>921.85900000000004</v>
+      </c>
+      <c r="W81">
+        <v>-186.20699999999999</v>
+      </c>
+      <c r="X81">
+        <v>440.02600000000001</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>-12.083</v>
+      </c>
+      <c r="AA81">
+        <v>521.11900000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>387.96800000000002</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2370.1019999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1150.519</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>968.43200000000002</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>4559.8990000000003</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>58239.212</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>2739.4369999999999</v>
       </c>
-      <c r="J42">
-        <v>21205.760999999999</v>
-      </c>
-      <c r="K42">
+      <c r="J82">
+        <v>21188.613000000001</v>
+      </c>
+      <c r="K82">
         <v>1627.489</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>7060.5060000000003</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>47058.66</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>24291.973000000002</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>519.43499999999995</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>13400</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>11180.552</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1759.0989999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>319.7</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-190.221</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>1716.1590000000001</v>
       </c>
-      <c r="Y42">
-        <v>223.78299999999999</v>
-      </c>
-      <c r="Z42">
+      <c r="Y82">
+        <v>240.93100000000001</v>
+      </c>
+      <c r="Z82">
         <v>-2.9340000000000002</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>387.96800000000002</v>
       </c>
     </row>
